--- a/TOEFL_Timer.xlsx
+++ b/TOEFL_Timer.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Timer for Reading(Sample)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="HW_3-8_1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HW_3-8_2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HW_3-8_1_review" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="HW_3-8_2_2_review" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Timer for Reading(Sample2)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HW_3-8_1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="HW_3-8_2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="HW_3-8_1_review" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="HW_3-8_2_2_review" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="2" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date-D</t>
   </si>
   <si>
     <t xml:space="preserve">CDE</t>
@@ -629,7 +642,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,6 +748,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>507240</xdr:rowOff>
+      <xdr:rowOff>506880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -883,7 +900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1626840" y="0"/>
-          <a:ext cx="4603320" cy="857520"/>
+          <a:ext cx="4602960" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,14 +1021,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>536400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>507240</xdr:rowOff>
     </xdr:to>
@@ -1022,8 +1039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1626840" y="0"/>
-          <a:ext cx="4603320" cy="857520"/>
+          <a:off x="8016840" y="360"/>
+          <a:ext cx="4602960" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,9 +1168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>507240</xdr:rowOff>
+      <xdr:rowOff>506880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1163,7 +1180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1626840" y="0"/>
-          <a:ext cx="4603320" cy="857520"/>
+          <a:ext cx="4602960" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,15 +1302,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>507240</xdr:rowOff>
+      <xdr:rowOff>506880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1302,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1627560" y="0"/>
-          <a:ext cx="4603320" cy="857520"/>
+          <a:off x="1626840" y="0"/>
+          <a:ext cx="4602960" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,15 +1442,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>505800</xdr:rowOff>
+      <xdr:rowOff>506880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1442,8 +1459,148 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="1627560" y="0"/>
+          <a:ext cx="4602960" cy="857160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffc0"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="ffffc0"/>
+          </a:solidFill>
+          <a:headEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="PingFang SC"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="PingFang SC"/>
+            </a:rPr>
+            <a:t>Set up Preferences: </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="PingFang SC"/>
+            </a:rPr>
+            <a:t>Calc → Calculate → Iterative References → Iterations: checked; Steps: 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="PingFang SC"/>
+            </a:rPr>
+            <a:t>* Key in the date to start. Ex: 8/31</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="PingFang SC"/>
+            </a:rPr>
+            <a:t>* Key in the answers in order. Feel free to change the question order.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>540360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>505440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="1626840" y="0"/>
-          <a:ext cx="4603320" cy="857520"/>
+          <a:ext cx="4602960" cy="857160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,7 +1724,7 @@
   </sheetPr>
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="str">
-        <f aca="true">IF(C5="", "", IF(G5="", NOW(), G5))</f>
+        <f aca="true">IF(OR(C5="", $B$2=""), "", IF(G5="", NOW(), G5))</f>
         <v/>
       </c>
       <c r="H5" s="8"/>
@@ -1783,7 +1940,7 @@
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="12" t="str">
-        <f aca="true">IF(C6="", "", IF(G6="", NOW(), G6))</f>
+        <f aca="true">IF(OR(C6="", $B$2=""), "", IF(G6="", NOW(), G6))</f>
         <v/>
       </c>
       <c r="H6" s="8"/>
@@ -1822,7 +1979,7 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="12" t="str">
-        <f aca="true">IF(C7="", "", IF(G7="", NOW(), G7))</f>
+        <f aca="true">IF(OR(C7="", $B$2=""), "", IF(G7="", NOW(), G7))</f>
         <v/>
       </c>
       <c r="H7" s="8"/>
@@ -1861,7 +2018,7 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="12" t="str">
-        <f aca="true">IF(C8="", "", IF(G8="", NOW(), G8))</f>
+        <f aca="true">IF(OR(C8="", $B$2=""), "", IF(G8="", NOW(), G8))</f>
         <v/>
       </c>
       <c r="H8" s="8"/>
@@ -1900,7 +2057,7 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="12" t="str">
-        <f aca="true">IF(C9="", "", IF(G9="", NOW(), G9))</f>
+        <f aca="true">IF(OR(C9="", $B$2=""), "", IF(G9="", NOW(), G9))</f>
         <v/>
       </c>
       <c r="H9" s="8"/>
@@ -1939,7 +2096,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="12" t="str">
-        <f aca="true">IF(C10="", "", IF(G10="", NOW(), G10))</f>
+        <f aca="true">IF(OR(C10="", $B$2=""), "", IF(G10="", NOW(), G10))</f>
         <v/>
       </c>
       <c r="H10" s="8"/>
@@ -1978,7 +2135,7 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="12" t="str">
-        <f aca="true">IF(C11="", "", IF(G11="", NOW(), G11))</f>
+        <f aca="true">IF(OR(C11="", $B$2=""), "", IF(G11="", NOW(), G11))</f>
         <v/>
       </c>
       <c r="H11" s="8"/>
@@ -2017,7 +2174,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="12" t="str">
-        <f aca="true">IF(C12="", "", IF(G12="", NOW(), G12))</f>
+        <f aca="true">IF(OR(C12="", $B$2=""), "", IF(G12="", NOW(), G12))</f>
         <v/>
       </c>
       <c r="H12" s="8"/>
@@ -2056,7 +2213,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="12" t="str">
-        <f aca="true">IF(C13="", "", IF(G13="", NOW(), G13))</f>
+        <f aca="true">IF(OR(C13="", $B$2=""), "", IF(G13="", NOW(), G13))</f>
         <v/>
       </c>
       <c r="H13" s="8"/>
@@ -2095,7 +2252,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="12" t="str">
-        <f aca="true">IF(C14="", "", IF(G14="", NOW(), G14))</f>
+        <f aca="true">IF(OR(C14="", $B$2=""), "", IF(G14="", NOW(), G14))</f>
         <v/>
       </c>
       <c r="H14" s="8"/>
@@ -2139,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="26" t="str">
-        <f aca="true">IF(C15="", "", IF(G15="", NOW(), G15))</f>
+        <f aca="true">IF(OR(C15="", $B$2=""), "", IF(G15="", NOW(), G15))</f>
         <v/>
       </c>
       <c r="H15" s="8"/>
@@ -2178,7 +2335,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26" t="str">
-        <f aca="true">IF(C16="", "", IF(G16="", NOW(), G16))</f>
+        <f aca="true">IF(OR(C16="", $B$2=""), "", IF(G16="", NOW(), G16))</f>
         <v/>
       </c>
       <c r="H16" s="8"/>
@@ -2217,7 +2374,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="str">
-        <f aca="true">IF(C17="", "", IF(G17="", NOW(), G17))</f>
+        <f aca="true">IF(OR(C17="", $B$2=""), "", IF(G17="", NOW(), G17))</f>
         <v/>
       </c>
       <c r="H17" s="8"/>
@@ -2256,7 +2413,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="str">
-        <f aca="true">IF(C18="", "", IF(G18="", NOW(), G18))</f>
+        <f aca="true">IF(OR(C18="", $B$2=""), "", IF(G18="", NOW(), G18))</f>
         <v/>
       </c>
       <c r="H18" s="8"/>
@@ -2295,7 +2452,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="str">
-        <f aca="true">IF(C19="", "", IF(G19="", NOW(), G19))</f>
+        <f aca="true">IF(OR(C19="", $B$2=""), "", IF(G19="", NOW(), G19))</f>
         <v/>
       </c>
       <c r="H19" s="8"/>
@@ -2334,7 +2491,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="str">
-        <f aca="true">IF(C20="", "", IF(G20="", NOW(), G20))</f>
+        <f aca="true">IF(OR(C20="", $B$2=""), "", IF(G20="", NOW(), G20))</f>
         <v/>
       </c>
       <c r="H20" s="8"/>
@@ -2373,7 +2530,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="str">
-        <f aca="true">IF(C21="", "", IF(G21="", NOW(), G21))</f>
+        <f aca="true">IF(OR(C21="", $B$2=""), "", IF(G21="", NOW(), G21))</f>
         <v/>
       </c>
       <c r="H21" s="8"/>
@@ -2412,7 +2569,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="str">
-        <f aca="true">IF(C22="", "", IF(G22="", NOW(), G22))</f>
+        <f aca="true">IF(OR(C22="", $B$2=""), "", IF(G22="", NOW(), G22))</f>
         <v/>
       </c>
       <c r="H22" s="8"/>
@@ -2451,7 +2608,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="str">
-        <f aca="true">IF(C23="", "", IF(G23="", NOW(), G23))</f>
+        <f aca="true">IF(OR(C23="", $B$2=""), "", IF(G23="", NOW(), G23))</f>
         <v/>
       </c>
       <c r="H23" s="8"/>
@@ -2492,7 +2649,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="str">
-        <f aca="true">IF(C24="", "", IF(G24="", NOW(), G24))</f>
+        <f aca="true">IF(OR(C24="", $B$2=""), "", IF(G24="", NOW(), G24))</f>
         <v/>
       </c>
       <c r="H24" s="8"/>
@@ -2536,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="12" t="str">
-        <f aca="true">IF(C25="", "", IF(G25="", NOW(), G25))</f>
+        <f aca="true">IF(OR(C25="", $B$2=""), "", IF(G25="", NOW(), G25))</f>
         <v/>
       </c>
       <c r="H25" s="8"/>
@@ -2575,7 +2732,7 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="12" t="str">
-        <f aca="true">IF(C26="", "", IF(G26="", NOW(), G26))</f>
+        <f aca="true">IF(OR(C26="", $B$2=""), "", IF(G26="", NOW(), G26))</f>
         <v/>
       </c>
       <c r="H26" s="8"/>
@@ -2614,7 +2771,7 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="12" t="str">
-        <f aca="true">IF(C27="", "", IF(G27="", NOW(), G27))</f>
+        <f aca="true">IF(OR(C27="", $B$2=""), "", IF(G27="", NOW(), G27))</f>
         <v/>
       </c>
       <c r="H27" s="8"/>
@@ -2653,7 +2810,7 @@
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="12" t="str">
-        <f aca="true">IF(C28="", "", IF(G28="", NOW(), G28))</f>
+        <f aca="true">IF(OR(C28="", $B$2=""), "", IF(G28="", NOW(), G28))</f>
         <v/>
       </c>
       <c r="H28" s="8"/>
@@ -2692,7 +2849,7 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="12" t="str">
-        <f aca="true">IF(C29="", "", IF(G29="", NOW(), G29))</f>
+        <f aca="true">IF(OR(C29="", $B$2=""), "", IF(G29="", NOW(), G29))</f>
         <v/>
       </c>
       <c r="H29" s="8"/>
@@ -2731,7 +2888,7 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="12" t="str">
-        <f aca="true">IF(C30="", "", IF(G30="", NOW(), G30))</f>
+        <f aca="true">IF(OR(C30="", $B$2=""), "", IF(G30="", NOW(), G30))</f>
         <v/>
       </c>
       <c r="H30" s="8"/>
@@ -2770,7 +2927,7 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="12" t="str">
-        <f aca="true">IF(C31="", "", IF(G31="", NOW(), G31))</f>
+        <f aca="true">IF(OR(C31="", $B$2=""), "", IF(G31="", NOW(), G31))</f>
         <v/>
       </c>
       <c r="H31" s="8"/>
@@ -2809,7 +2966,7 @@
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="12" t="str">
-        <f aca="true">IF(C32="", "", IF(G32="", NOW(), G32))</f>
+        <f aca="true">IF(OR(C32="", $B$2=""), "", IF(G32="", NOW(), G32))</f>
         <v/>
       </c>
       <c r="H32" s="8"/>
@@ -2848,7 +3005,7 @@
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="12" t="str">
-        <f aca="true">IF(C33="", "", IF(G33="", NOW(), G33))</f>
+        <f aca="true">IF(OR(C33="", $B$2=""), "", IF(G33="", NOW(), G33))</f>
         <v/>
       </c>
       <c r="H33" s="8"/>
@@ -2889,7 +3046,7 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="12" t="str">
-        <f aca="true">IF(C34="", "", IF(G34="", NOW(), G34))</f>
+        <f aca="true">IF(OR(C34="", $B$2=""), "", IF(G34="", NOW(), G34))</f>
         <v/>
       </c>
       <c r="H34" s="8"/>
@@ -2933,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="26" t="str">
-        <f aca="true">IF(C35="", "", IF(G35="", NOW(), G35))</f>
+        <f aca="true">IF(OR(C35="", $B$2=""), "", IF(G35="", NOW(), G35))</f>
         <v/>
       </c>
       <c r="H35" s="8"/>
@@ -2972,7 +3129,7 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26" t="str">
-        <f aca="true">IF(C36="", "", IF(G36="", NOW(), G36))</f>
+        <f aca="true">IF(OR(C36="", $B$2=""), "", IF(G36="", NOW(), G36))</f>
         <v/>
       </c>
       <c r="H36" s="8"/>
@@ -3011,7 +3168,7 @@
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26" t="str">
-        <f aca="true">IF(C37="", "", IF(G37="", NOW(), G37))</f>
+        <f aca="true">IF(OR(C37="", $B$2=""), "", IF(G37="", NOW(), G37))</f>
         <v/>
       </c>
       <c r="H37" s="8"/>
@@ -3050,7 +3207,7 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26" t="str">
-        <f aca="true">IF(C38="", "", IF(G38="", NOW(), G38))</f>
+        <f aca="true">IF(OR(C38="", $B$2=""), "", IF(G38="", NOW(), G38))</f>
         <v/>
       </c>
       <c r="H38" s="8"/>
@@ -3089,7 +3246,7 @@
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="str">
-        <f aca="true">IF(C39="", "", IF(G39="", NOW(), G39))</f>
+        <f aca="true">IF(OR(C39="", $B$2=""), "", IF(G39="", NOW(), G39))</f>
         <v/>
       </c>
       <c r="H39" s="8"/>
@@ -3128,7 +3285,7 @@
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26" t="str">
-        <f aca="true">IF(C40="", "", IF(G40="", NOW(), G40))</f>
+        <f aca="true">IF(OR(C40="", $B$2=""), "", IF(G40="", NOW(), G40))</f>
         <v/>
       </c>
       <c r="H40" s="8"/>
@@ -3167,7 +3324,7 @@
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="26" t="str">
-        <f aca="true">IF(C41="", "", IF(G41="", NOW(), G41))</f>
+        <f aca="true">IF(OR(C41="", $B$2=""), "", IF(G41="", NOW(), G41))</f>
         <v/>
       </c>
       <c r="H41" s="8"/>
@@ -3206,7 +3363,7 @@
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="26" t="str">
-        <f aca="true">IF(C42="", "", IF(G42="", NOW(), G42))</f>
+        <f aca="true">IF(OR(C42="", $B$2=""), "", IF(G42="", NOW(), G42))</f>
         <v/>
       </c>
       <c r="H42" s="8"/>
@@ -3245,7 +3402,7 @@
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="26" t="str">
-        <f aca="true">IF(C43="", "", IF(G43="", NOW(), G43))</f>
+        <f aca="true">IF(OR(C43="", $B$2=""), "", IF(G43="", NOW(), G43))</f>
         <v/>
       </c>
       <c r="H43" s="8"/>
@@ -3286,7 +3443,7 @@
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="26" t="str">
-        <f aca="true">IF(C44="", "", IF(G44="", NOW(), G44))</f>
+        <f aca="true">IF(OR(C44="", $B$2=""), "", IF(G44="", NOW(), G44))</f>
         <v/>
       </c>
       <c r="H44" s="8"/>
@@ -4889,11 +5046,11 @@
     <mergeCell ref="F35:F44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4906,8 +5063,8 @@
   </sheetPr>
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4921,23 +5078,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="n">
-        <v>44629</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="n">
+      <c r="J1" s="20" t="n">
         <f aca="false">SUM(E5:E34)</f>
-        <v>0.0366021623842593</v>
+        <v>0</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4956,26 +5117,41 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="40.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="12" t="str">
         <f aca="true">IF(B1="", "", IF(B2="", NOW(), B2))</f>
-        <v>44629.816575814</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
+        <v/>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="str">
+        <f aca="true">IF(D1="", "", IF(D2="", NOW(), D2))</f>
+        <v/>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f aca="true">IF(F1="", "", IF(F2="", NOW(), F2))</f>
+        <v/>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f aca="true">IF(H1="", "", IF(H2="", NOW(), H2))</f>
+        <v/>
+      </c>
       <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="20" t="n">
         <f aca="false">SUM(E5:E44)</f>
-        <v>0.0491708480787037</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -5071,24 +5247,22 @@
       <c r="B5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="19" t="n">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="str">
         <f aca="false">IF(G5="", "",G5-$B$2 )</f>
-        <v>0.00145075679398148</v>
-      </c>
-      <c r="E5" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E5" s="19" t="str">
         <f aca="false">IF(G5="", "", G5-B2)</f>
-        <v>0.00145075679398148</v>
+        <v/>
       </c>
       <c r="F5" s="20" t="n">
         <f aca="false">SUM(E5:E14)</f>
-        <v>0.0125391064930556</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <f aca="true">IF(C5="", "", IF(G5="", NOW(), G5))</f>
-        <v>44629.8180265708</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f aca="true">IF(OR(C5="", $B$2=""), "", IF(G5="", NOW(), G5))</f>
+        <v/>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -5115,21 +5289,19 @@
       <c r="B6" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="19" t="n">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="str">
         <f aca="false">IF(G6="", "",G6-$B$2 )</f>
-        <v>0.0028982762037037</v>
-      </c>
-      <c r="E6" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="19" t="str">
         <f aca="false">IF(G6="", "", G6-G5)</f>
-        <v>0.00144751939814815</v>
+        <v/>
       </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="12" t="n">
-        <f aca="true">IF(C6="", "", IF(G6="", NOW(), G6))</f>
-        <v>44629.8194740902</v>
+      <c r="G6" s="12" t="str">
+        <f aca="true">IF(OR(C6="", $B$2=""), "", IF(G6="", NOW(), G6))</f>
+        <v/>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -5154,23 +5326,21 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="str">
         <f aca="false">IF(G7="", "",G7-$B$2 )</f>
-        <v>0.00437014390046296</v>
-      </c>
-      <c r="E7" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E7" s="19" t="str">
         <f aca="false">IF(G7="", "", G7-G6)</f>
-        <v>0.00147186769675926</v>
+        <v/>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="12" t="n">
-        <f aca="true">IF(C7="", "", IF(G7="", NOW(), G7))</f>
-        <v>44629.8209459579</v>
+      <c r="G7" s="12" t="str">
+        <f aca="true">IF(OR(C7="", $B$2=""), "", IF(G7="", NOW(), G7))</f>
+        <v/>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5195,23 +5365,21 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="str">
         <f aca="false">IF(G8="", "",G8-$B$2 )</f>
-        <v>0.00582619299768519</v>
-      </c>
-      <c r="E8" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="19" t="str">
         <f aca="false">IF(G8="", "", G8-G7)</f>
-        <v>0.00145604909722222</v>
+        <v/>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="12" t="n">
-        <f aca="true">IF(C8="", "", IF(G8="", NOW(), G8))</f>
-        <v>44629.822402007</v>
+      <c r="G8" s="12" t="str">
+        <f aca="true">IF(OR(C8="", $B$2=""), "", IF(G8="", NOW(), G8))</f>
+        <v/>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5236,23 +5404,21 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="str">
         <f aca="false">IF(G9="", "",G9-$B$2 )</f>
-        <v>0.00710101559027778</v>
-      </c>
-      <c r="E9" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E9" s="19" t="str">
         <f aca="false">IF(G9="", "", G9-G8)</f>
-        <v>0.00127482260416667</v>
+        <v/>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="12" t="n">
-        <f aca="true">IF(C9="", "", IF(G9="", NOW(), G9))</f>
-        <v>44629.8236768296</v>
+      <c r="G9" s="12" t="str">
+        <f aca="true">IF(OR(C9="", $B$2=""), "", IF(G9="", NOW(), G9))</f>
+        <v/>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5277,23 +5443,21 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="str">
         <f aca="false">IF(G10="", "",G10-$B$2 )</f>
-        <v>0.00834725890046296</v>
-      </c>
-      <c r="E10" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E10" s="19" t="str">
         <f aca="false">IF(G10="", "", G10-G9)</f>
-        <v>0.00124624329861111</v>
+        <v/>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="12" t="n">
-        <f aca="true">IF(C10="", "", IF(G10="", NOW(), G10))</f>
-        <v>44629.8249230729</v>
+      <c r="G10" s="12" t="str">
+        <f aca="true">IF(OR(C10="", $B$2=""), "", IF(G10="", NOW(), G10))</f>
+        <v/>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -5318,23 +5482,21 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="str">
         <f aca="false">IF(G11="", "",G11-$B$2 )</f>
-        <v>0.00910151429398148</v>
-      </c>
-      <c r="E11" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E11" s="19" t="str">
         <f aca="false">IF(G11="", "", G11-G10)</f>
-        <v>0.000754255405092593</v>
+        <v/>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="12" t="n">
-        <f aca="true">IF(C11="", "", IF(G11="", NOW(), G11))</f>
-        <v>44629.8256773283</v>
+      <c r="G11" s="12" t="str">
+        <f aca="true">IF(OR(C11="", $B$2=""), "", IF(G11="", NOW(), G11))</f>
+        <v/>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -5359,23 +5521,21 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="str">
         <f aca="false">IF(G12="", "",G12-$B$2 )</f>
-        <v>0.0109339173032407</v>
-      </c>
-      <c r="E12" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="19" t="str">
         <f aca="false">IF(G12="", "", G12-G11)</f>
-        <v>0.00183240299768519</v>
+        <v/>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="12" t="n">
-        <f aca="true">IF(C12="", "", IF(G12="", NOW(), G12))</f>
-        <v>44629.8275097313</v>
+      <c r="G12" s="12" t="str">
+        <f aca="true">IF(OR(C12="", $B$2=""), "", IF(G12="", NOW(), G12))</f>
+        <v/>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -5400,23 +5560,21 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="str">
         <f aca="false">IF(G13="", "",G13-$B$2 )</f>
-        <v>0.0111795223958333</v>
-      </c>
-      <c r="E13" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E13" s="19" t="str">
         <f aca="false">IF(G13="", "", G13-G12)</f>
-        <v>0.000245605104166667</v>
+        <v/>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="12" t="n">
-        <f aca="true">IF(C13="", "", IF(G13="", NOW(), G13))</f>
-        <v>44629.8277553364</v>
+      <c r="G13" s="12" t="str">
+        <f aca="true">IF(OR(C13="", $B$2=""), "", IF(G13="", NOW(), G13))</f>
+        <v/>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -5443,21 +5601,19 @@
       <c r="B14" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="19" t="n">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="str">
         <f aca="false">IF(G14="", "",G14-$B$2 )</f>
-        <v>0.0125391065046296</v>
-      </c>
-      <c r="E14" s="19" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="19" t="str">
         <f aca="false">IF(G14="", "", G14-G13)</f>
-        <v>0.00135958409722222</v>
+        <v/>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="12" t="n">
-        <f aca="true">IF(C14="", "", IF(G14="", NOW(), G14))</f>
-        <v>44629.8291149205</v>
+      <c r="G14" s="12" t="str">
+        <f aca="true">IF(OR(C14="", $B$2=""), "", IF(G14="", NOW(), G14))</f>
+        <v/>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5486,24 +5642,22 @@
       <c r="B15" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="24" t="n">
-        <f aca="false">IF(G15="", "",G15-$G$14 )</f>
-        <v>0.00108989689814815</v>
-      </c>
-      <c r="E15" s="24" t="n">
-        <f aca="false">IF(G15="", "", G15-G14)</f>
-        <v>0.00108989689814815</v>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="str">
+        <f aca="false">IF(G15="", "",G15-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E15" s="24" t="str">
+        <f aca="false">IF(G15="", "", G15-D2)</f>
+        <v/>
       </c>
       <c r="F15" s="25" t="n">
         <f aca="false">SUM(E15:E24)</f>
-        <v>0.0120761556944444</v>
-      </c>
-      <c r="G15" s="26" t="n">
-        <f aca="true">IF(C15="", "", IF(G15="", NOW(), G15))</f>
-        <v>44629.8302048174</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f aca="true">IF(OR(C15="", $D$2=""), "", IF(G15="", NOW(), G15))</f>
+        <v/>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -5530,21 +5684,19 @@
       <c r="B16" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="24" t="n">
-        <f aca="false">IF(G16="", "",G16-$G$14 )</f>
-        <v>0.00245604429398148</v>
-      </c>
-      <c r="E16" s="24" t="n">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="str">
+        <f aca="false">IF(G16="", "",G16-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E16" s="24" t="str">
         <f aca="false">IF(G16="", "", G16-G15)</f>
-        <v>0.00136614739583333</v>
+        <v/>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="26" t="n">
-        <f aca="true">IF(C16="", "", IF(G16="", NOW(), G16))</f>
-        <v>44629.8315709648</v>
+      <c r="G16" s="26" t="str">
+        <f aca="true">IF(OR(C16="", $D$2=""), "", IF(G16="", NOW(), G16))</f>
+        <v/>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -5571,21 +5723,19 @@
       <c r="B17" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="24" t="n">
-        <f aca="false">IF(G17="", "",G17-$G$14 )</f>
-        <v>0.0029848587037037</v>
-      </c>
-      <c r="E17" s="24" t="n">
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="str">
+        <f aca="false">IF(G17="", "",G17-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E17" s="24" t="str">
         <f aca="false">IF(G17="", "", G17-G16)</f>
-        <v>0.000528814398148148</v>
+        <v/>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="26" t="n">
-        <f aca="true">IF(C17="", "", IF(G17="", NOW(), G17))</f>
-        <v>44629.8320997792</v>
+      <c r="G17" s="26" t="str">
+        <f aca="true">IF(OR(C17="", $D$2=""), "", IF(G17="", NOW(), G17))</f>
+        <v/>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -5610,23 +5760,21 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="24" t="n">
-        <f aca="false">IF(G18="", "",G18-$G$14 )</f>
-        <v>0.00413077668981482</v>
-      </c>
-      <c r="E18" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="str">
+        <f aca="false">IF(G18="", "",G18-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E18" s="24" t="str">
         <f aca="false">IF(G18="", "", G18-G17)</f>
-        <v>0.00114591799768519</v>
+        <v/>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="26" t="n">
-        <f aca="true">IF(C18="", "", IF(G18="", NOW(), G18))</f>
-        <v>44629.8332456972</v>
+      <c r="G18" s="26" t="str">
+        <f aca="true">IF(OR(C18="", $D$2=""), "", IF(G18="", NOW(), G18))</f>
+        <v/>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -5651,23 +5799,21 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="24" t="n">
-        <f aca="false">IF(G19="", "",G19-$G$14 )</f>
-        <v>0.00524145149305556</v>
-      </c>
-      <c r="E19" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="str">
+        <f aca="false">IF(G19="", "",G19-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E19" s="24" t="str">
         <f aca="false">IF(G19="", "", G19-G18)</f>
-        <v>0.00111067480324074</v>
+        <v/>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="26" t="n">
-        <f aca="true">IF(C19="", "", IF(G19="", NOW(), G19))</f>
-        <v>44629.834356372</v>
+      <c r="G19" s="26" t="str">
+        <f aca="true">IF(OR(C19="", $D$2=""), "", IF(G19="", NOW(), G19))</f>
+        <v/>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -5692,23 +5838,21 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="24" t="n">
-        <f aca="false">IF(G20="", "",G20-$G$14 )</f>
-        <v>0.00565044049768519</v>
-      </c>
-      <c r="E20" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="str">
+        <f aca="false">IF(G20="", "",G20-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E20" s="24" t="str">
         <f aca="false">IF(G20="", "", G20-G19)</f>
-        <v>0.00040898900462963</v>
+        <v/>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="26" t="n">
-        <f aca="true">IF(C20="", "", IF(G20="", NOW(), G20))</f>
-        <v>44629.834765361</v>
+      <c r="G20" s="26" t="str">
+        <f aca="true">IF(OR(C20="", $D$2=""), "", IF(G20="", NOW(), G20))</f>
+        <v/>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5733,23 +5877,21 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="24" t="n">
-        <f aca="false">IF(G21="", "",G21-$G$14 )</f>
-        <v>0.00667611309027778</v>
-      </c>
-      <c r="E21" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="str">
+        <f aca="false">IF(G21="", "",G21-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E21" s="24" t="str">
         <f aca="false">IF(G21="", "", G21-G20)</f>
-        <v>0.00102567259259259</v>
+        <v/>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="26" t="n">
-        <f aca="true">IF(C21="", "", IF(G21="", NOW(), G21))</f>
-        <v>44629.8357910336</v>
+      <c r="G21" s="26" t="str">
+        <f aca="true">IF(OR(C21="", $D$2=""), "", IF(G21="", NOW(), G21))</f>
+        <v/>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -5774,23 +5916,21 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21"/>
       <c r="B22" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="24" t="n">
-        <f aca="false">IF(G22="", "",G22-$G$14 )</f>
-        <v>0.00840409989583333</v>
-      </c>
-      <c r="E22" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="str">
+        <f aca="false">IF(G22="", "",G22-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E22" s="24" t="str">
         <f aca="false">IF(G22="", "", G22-G21)</f>
-        <v>0.00172798680555556</v>
+        <v/>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="26" t="n">
-        <f aca="true">IF(C22="", "", IF(G22="", NOW(), G22))</f>
-        <v>44629.8375190204</v>
+      <c r="G22" s="26" t="str">
+        <f aca="true">IF(OR(C22="", $D$2=""), "", IF(G22="", NOW(), G22))</f>
+        <v/>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -5815,23 +5955,21 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <f aca="false">IF(G23="", "",G23-$G$14 )</f>
-        <v>0.0107603426967593</v>
-      </c>
-      <c r="E23" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="str">
+        <f aca="false">IF(G23="", "",G23-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E23" s="24" t="str">
         <f aca="false">IF(G23="", "", G23-G22)</f>
-        <v>0.00235624280092593</v>
+        <v/>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="26" t="n">
-        <f aca="true">IF(C23="", "", IF(G23="", NOW(), G23))</f>
-        <v>44629.8398752632</v>
+      <c r="G23" s="26" t="str">
+        <f aca="true">IF(OR(C23="", $D$2=""), "", IF(G23="", NOW(), G23))</f>
+        <v/>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5860,21 +5998,19 @@
       <c r="B24" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <f aca="false">IF(G24="", "",G24-$G$14 )</f>
-        <v>0.0120761556944444</v>
-      </c>
-      <c r="E24" s="24" t="n">
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="str">
+        <f aca="false">IF(G24="", "",G24-$D$2 )</f>
+        <v/>
+      </c>
+      <c r="E24" s="24" t="str">
         <f aca="false">IF(G24="", "", G24-G23)</f>
-        <v>0.00131581299768519</v>
+        <v/>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="26" t="n">
-        <f aca="true">IF(C24="", "", IF(G24="", NOW(), G24))</f>
-        <v>44629.8411910762</v>
+      <c r="G24" s="26" t="str">
+        <f aca="true">IF(OR(C24="", $D$2=""), "", IF(G24="", NOW(), G24))</f>
+        <v/>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -5903,24 +6039,22 @@
       <c r="B25" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="19" t="n">
-        <f aca="false">IF(G25="", "",G25-$G$24 )</f>
-        <v>0.00258664679398148</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <f aca="false">IF(G25="", "", G25-G24)</f>
-        <v>0.00258664679398148</v>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="str">
+        <f aca="false">IF(G25="", "",G25-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E25" s="19" t="str">
+        <f aca="false">IF(G25="", "", G25-F2)</f>
+        <v/>
       </c>
       <c r="F25" s="20" t="n">
         <f aca="false">SUM(E25:E34)</f>
-        <v>0.0119869001967593</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <f aca="true">IF(C25="", "", IF(G25="", NOW(), G25))</f>
-        <v>44629.843777723</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <f aca="true">IF(OR(C25="", $F$2=""), "", IF(G25="", NOW(), G25))</f>
+        <v/>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5947,21 +6081,19 @@
       <c r="B26" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="19" t="n">
-        <f aca="false">IF(G26="", "",G26-$G$24 )</f>
-        <v>0.00289285270833333</v>
-      </c>
-      <c r="E26" s="19" t="n">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="str">
+        <f aca="false">IF(G26="", "",G26-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E26" s="19" t="str">
         <f aca="false">IF(G26="", "", G26-G25)</f>
-        <v>0.000306205902777778</v>
+        <v/>
       </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="12" t="n">
-        <f aca="true">IF(C26="", "", IF(G26="", NOW(), G26))</f>
-        <v>44629.8440839289</v>
+      <c r="G26" s="12" t="str">
+        <f aca="true">IF(OR(C26="", $F$2=""), "", IF(G26="", NOW(), G26))</f>
+        <v/>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -5988,21 +6120,19 @@
       <c r="B27" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="19" t="n">
-        <f aca="false">IF(G27="", "",G27-$G$24 )</f>
-        <v>0.0035925787037037</v>
-      </c>
-      <c r="E27" s="19" t="n">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="str">
+        <f aca="false">IF(G27="", "",G27-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E27" s="19" t="str">
         <f aca="false">IF(G27="", "", G27-G26)</f>
-        <v>0.00069972599537037</v>
+        <v/>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="12" t="n">
-        <f aca="true">IF(C27="", "", IF(G27="", NOW(), G27))</f>
-        <v>44629.8447836549</v>
+      <c r="G27" s="12" t="str">
+        <f aca="true">IF(OR(C27="", $F$2=""), "", IF(G27="", NOW(), G27))</f>
+        <v/>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -6029,21 +6159,19 @@
       <c r="B28" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="19" t="n">
-        <f aca="false">IF(G28="", "",G28-$G$24 )</f>
-        <v>0.0037237937962963</v>
-      </c>
-      <c r="E28" s="19" t="n">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19" t="str">
+        <f aca="false">IF(G28="", "",G28-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E28" s="19" t="str">
         <f aca="false">IF(G28="", "", G28-G27)</f>
-        <v>0.000131215104166667</v>
+        <v/>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="12" t="n">
-        <f aca="true">IF(C28="", "", IF(G28="", NOW(), G28))</f>
-        <v>44629.84491487</v>
+      <c r="G28" s="12" t="str">
+        <f aca="true">IF(OR(C28="", $F$2=""), "", IF(G28="", NOW(), G28))</f>
+        <v/>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -6070,21 +6198,19 @@
       <c r="B29" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="19" t="n">
-        <f aca="false">IF(G29="", "",G29-$G$24 )</f>
-        <v>0.00527652009259259</v>
-      </c>
-      <c r="E29" s="19" t="n">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19" t="str">
+        <f aca="false">IF(G29="", "",G29-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E29" s="19" t="str">
         <f aca="false">IF(G29="", "", G29-G28)</f>
-        <v>0.0015527262962963</v>
+        <v/>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="12" t="n">
-        <f aca="true">IF(C29="", "", IF(G29="", NOW(), G29))</f>
-        <v>44629.8464675963</v>
+      <c r="G29" s="12" t="str">
+        <f aca="true">IF(OR(C29="", $F$2=""), "", IF(G29="", NOW(), G29))</f>
+        <v/>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -6109,23 +6235,21 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="19" t="n">
-        <f aca="false">IF(G30="", "",G30-$G$24 )</f>
-        <v>0.00600457390046296</v>
-      </c>
-      <c r="E30" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="str">
+        <f aca="false">IF(G30="", "",G30-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E30" s="19" t="str">
         <f aca="false">IF(G30="", "", G30-G29)</f>
-        <v>0.00072805380787037</v>
+        <v/>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="12" t="n">
-        <f aca="true">IF(C30="", "", IF(G30="", NOW(), G30))</f>
-        <v>44629.8471956501</v>
+      <c r="G30" s="12" t="str">
+        <f aca="true">IF(OR(C30="", $F$2=""), "", IF(G30="", NOW(), G30))</f>
+        <v/>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -6152,21 +6276,19 @@
       <c r="B31" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="19" t="n">
-        <f aca="false">IF(G31="", "",G31-$G$24 )</f>
-        <v>0.00806951079861111</v>
-      </c>
-      <c r="E31" s="19" t="n">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19" t="str">
+        <f aca="false">IF(G31="", "",G31-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E31" s="19" t="str">
         <f aca="false">IF(G31="", "", G31-G30)</f>
-        <v>0.00206493689814815</v>
+        <v/>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="12" t="n">
-        <f aca="true">IF(C31="", "", IF(G31="", NOW(), G31))</f>
-        <v>44629.849260587</v>
+      <c r="G31" s="12" t="str">
+        <f aca="true">IF(OR(C31="", $F$2=""), "", IF(G31="", NOW(), G31))</f>
+        <v/>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -6193,21 +6315,19 @@
       <c r="B32" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="19" t="n">
-        <f aca="false">IF(G32="", "",G32-$G$24 )</f>
-        <v>0.00855534849537037</v>
-      </c>
-      <c r="E32" s="19" t="n">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19" t="str">
+        <f aca="false">IF(G32="", "",G32-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E32" s="19" t="str">
         <f aca="false">IF(G32="", "", G32-G31)</f>
-        <v>0.000485837696759259</v>
+        <v/>
       </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="12" t="n">
-        <f aca="true">IF(C32="", "", IF(G32="", NOW(), G32))</f>
-        <v>44629.8497464247</v>
+      <c r="G32" s="12" t="str">
+        <f aca="true">IF(OR(C32="", $F$2=""), "", IF(G32="", NOW(), G32))</f>
+        <v/>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -6232,20 +6352,21 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="19" t="n">
-        <v>0.00855534853009259</v>
-      </c>
-      <c r="E33" s="19" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19" t="str">
+        <f aca="false">IF(G33="", "",G33-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E33" s="19" t="str">
+        <f aca="false">IF(G33="", "", G33-G32)</f>
+        <v/>
       </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="12" t="n">
-        <v>44629.8497464247</v>
+      <c r="G33" s="12" t="str">
+        <f aca="true">IF(OR(C33="", $F$2=""), "", IF(G33="", NOW(), G33))</f>
+        <v/>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -6274,21 +6395,19 @@
       <c r="B34" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="19" t="n">
-        <f aca="false">IF(G34="", "",G34-$G$24 )</f>
-        <v>0.0119869001967593</v>
-      </c>
-      <c r="E34" s="19" t="n">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19" t="str">
+        <f aca="false">IF(G34="", "",G34-$F$2 )</f>
+        <v/>
+      </c>
+      <c r="E34" s="19" t="str">
         <f aca="false">IF(G34="", "", G34-G33)</f>
-        <v>0.00343155170138889</v>
+        <v/>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="12" t="n">
-        <f aca="true">IF(C34="", "", IF(G34="", NOW(), G34))</f>
-        <v>44629.8531779764</v>
+      <c r="G34" s="12" t="str">
+        <f aca="true">IF(OR(C34="", $F$2=""), "", IF(G34="", NOW(), G34))</f>
+        <v/>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -6317,24 +6436,22 @@
       <c r="B35" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="24" t="n">
-        <f aca="false">IF(G35="", "",G35-$G$34 )</f>
-        <v>0.000521118796296296</v>
-      </c>
-      <c r="E35" s="24" t="n">
-        <f aca="false">IF(G35="", "", G35-G34)</f>
-        <v>0.000521118796296296</v>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24" t="str">
+        <f aca="false">IF(G35="", "",G35-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E35" s="24" t="str">
+        <f aca="false">IF(G35="", "", G35-H2)</f>
+        <v/>
       </c>
       <c r="F35" s="25" t="n">
         <f aca="false">SUM(E35:E44)</f>
-        <v>0.0125686856944444</v>
-      </c>
-      <c r="G35" s="26" t="n">
-        <f aca="true">IF(C35="", "", IF(G35="", NOW(), G35))</f>
-        <v>44629.8536990952</v>
+        <v>0</v>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f aca="true">IF(OR(C35="", $H$2=""), "", IF(G35="", NOW(), G35))</f>
+        <v/>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -6361,21 +6478,19 @@
       <c r="B36" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="24" t="n">
-        <f aca="false">IF(G36="", "",G36-$G$34 )</f>
-        <v>0.00270641769675926</v>
-      </c>
-      <c r="E36" s="24" t="n">
+      <c r="C36" s="23"/>
+      <c r="D36" s="24" t="str">
+        <f aca="false">IF(G36="", "",G36-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E36" s="24" t="str">
         <f aca="false">IF(G36="", "", G36-G35)</f>
-        <v>0.00218529890046296</v>
+        <v/>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="26" t="n">
-        <f aca="true">IF(C36="", "", IF(G36="", NOW(), G36))</f>
-        <v>44629.8558843941</v>
+      <c r="G36" s="26" t="str">
+        <f aca="true">IF(OR(C36="", $H$2=""), "", IF(G36="", NOW(), G36))</f>
+        <v/>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -6402,21 +6517,19 @@
       <c r="B37" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="24" t="n">
-        <f aca="false">IF(G37="", "",G37-$G$34 )</f>
-        <v>0.00511151310185185</v>
-      </c>
-      <c r="E37" s="24" t="n">
+      <c r="C37" s="23"/>
+      <c r="D37" s="24" t="str">
+        <f aca="false">IF(G37="", "",G37-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E37" s="24" t="str">
         <f aca="false">IF(G37="", "", G37-G36)</f>
-        <v>0.00240509540509259</v>
+        <v/>
       </c>
       <c r="F37" s="25"/>
-      <c r="G37" s="26" t="n">
-        <f aca="true">IF(C37="", "", IF(G37="", NOW(), G37))</f>
-        <v>44629.8582894895</v>
+      <c r="G37" s="26" t="str">
+        <f aca="true">IF(OR(C37="", $H$2=""), "", IF(G37="", NOW(), G37))</f>
+        <v/>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6443,21 +6556,19 @@
       <c r="B38" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="24" t="n">
-        <f aca="false">IF(G38="", "",G38-$G$34 )</f>
-        <v>0.0056173937962963</v>
-      </c>
-      <c r="E38" s="24" t="n">
+      <c r="C38" s="23"/>
+      <c r="D38" s="24" t="str">
+        <f aca="false">IF(G38="", "",G38-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E38" s="24" t="str">
         <f aca="false">IF(G38="", "", G38-G37)</f>
-        <v>0.000505880694444444</v>
+        <v/>
       </c>
       <c r="F38" s="25"/>
-      <c r="G38" s="26" t="n">
-        <f aca="true">IF(C38="", "", IF(G38="", NOW(), G38))</f>
-        <v>44629.8587953702</v>
+      <c r="G38" s="26" t="str">
+        <f aca="true">IF(OR(C38="", $H$2=""), "", IF(G38="", NOW(), G38))</f>
+        <v/>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -6484,21 +6595,19 @@
       <c r="B39" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="24" t="n">
-        <f aca="false">IF(G39="", "",G39-$G$34 )</f>
-        <v>0.00591988430555556</v>
-      </c>
-      <c r="E39" s="24" t="n">
+      <c r="C39" s="23"/>
+      <c r="D39" s="24" t="str">
+        <f aca="false">IF(G39="", "",G39-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E39" s="24" t="str">
         <f aca="false">IF(G39="", "", G39-G38)</f>
-        <v>0.000302490497685185</v>
+        <v/>
       </c>
       <c r="F39" s="25"/>
-      <c r="G39" s="26" t="n">
-        <f aca="true">IF(C39="", "", IF(G39="", NOW(), G39))</f>
-        <v>44629.8590978607</v>
+      <c r="G39" s="26" t="str">
+        <f aca="true">IF(OR(C39="", $H$2=""), "", IF(G39="", NOW(), G39))</f>
+        <v/>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6525,21 +6634,19 @@
       <c r="B40" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="24" t="n">
-        <f aca="false">IF(G40="", "",G40-$G$34 )</f>
-        <v>0.00603691399305556</v>
-      </c>
-      <c r="E40" s="24" t="n">
+      <c r="C40" s="23"/>
+      <c r="D40" s="24" t="str">
+        <f aca="false">IF(G40="", "",G40-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E40" s="24" t="str">
         <f aca="false">IF(G40="", "", G40-G39)</f>
-        <v>0.000117029699074074</v>
+        <v/>
       </c>
       <c r="F40" s="25"/>
-      <c r="G40" s="26" t="n">
-        <f aca="true">IF(C40="", "", IF(G40="", NOW(), G40))</f>
-        <v>44629.8592148904</v>
+      <c r="G40" s="26" t="str">
+        <f aca="true">IF(OR(C40="", $H$2=""), "", IF(G40="", NOW(), G40))</f>
+        <v/>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -6566,21 +6673,19 @@
       <c r="B41" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="24" t="n">
-        <f aca="false">IF(G41="", "",G41-$G$34 )</f>
-        <v>0.00976059549768518</v>
-      </c>
-      <c r="E41" s="24" t="n">
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="str">
+        <f aca="false">IF(G41="", "",G41-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E41" s="24" t="str">
         <f aca="false">IF(G41="", "", G41-G40)</f>
-        <v>0.00372368150462963</v>
+        <v/>
       </c>
       <c r="F41" s="25"/>
-      <c r="G41" s="26" t="n">
-        <f aca="true">IF(C41="", "", IF(G41="", NOW(), G41))</f>
-        <v>44629.8629385719</v>
+      <c r="G41" s="26" t="str">
+        <f aca="true">IF(OR(C41="", $H$2=""), "", IF(G41="", NOW(), G41))</f>
+        <v/>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6607,21 +6712,19 @@
       <c r="B42" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="24" t="n">
-        <f aca="false">IF(G42="", "",G42-$G$34 )</f>
-        <v>0.0111230248958333</v>
-      </c>
-      <c r="E42" s="24" t="n">
+      <c r="C42" s="23"/>
+      <c r="D42" s="24" t="str">
+        <f aca="false">IF(G42="", "",G42-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E42" s="24" t="str">
         <f aca="false">IF(G42="", "", G42-G41)</f>
-        <v>0.00136242939814815</v>
+        <v/>
       </c>
       <c r="F42" s="25"/>
-      <c r="G42" s="26" t="n">
-        <f aca="true">IF(C42="", "", IF(G42="", NOW(), G42))</f>
-        <v>44629.8643010013</v>
+      <c r="G42" s="26" t="str">
+        <f aca="true">IF(OR(C42="", $H$2=""), "", IF(G42="", NOW(), G42))</f>
+        <v/>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -6648,21 +6751,19 @@
       <c r="B43" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="24" t="n">
-        <f aca="false">IF(G43="", "",G43-$G$34 )</f>
-        <v>0.0120549926967593</v>
-      </c>
-      <c r="E43" s="24" t="n">
+      <c r="C43" s="23"/>
+      <c r="D43" s="24" t="str">
+        <f aca="false">IF(G43="", "",G43-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E43" s="24" t="str">
         <f aca="false">IF(G43="", "", G43-G42)</f>
-        <v>0.000931967800925926</v>
+        <v/>
       </c>
       <c r="F43" s="25"/>
-      <c r="G43" s="26" t="n">
-        <f aca="true">IF(C43="", "", IF(G43="", NOW(), G43))</f>
-        <v>44629.8652329691</v>
+      <c r="G43" s="26" t="str">
+        <f aca="true">IF(OR(C43="", $H$2=""), "", IF(G43="", NOW(), G43))</f>
+        <v/>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6691,21 +6792,19 @@
       <c r="B44" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="24" t="n">
-        <f aca="false">IF(G44="", "",G44-$G$34 )</f>
-        <v>0.0125686856944444</v>
-      </c>
-      <c r="E44" s="24" t="n">
+      <c r="C44" s="23"/>
+      <c r="D44" s="24" t="str">
+        <f aca="false">IF(G44="", "",G44-$H$2 )</f>
+        <v/>
+      </c>
+      <c r="E44" s="24" t="str">
         <f aca="false">IF(G44="", "", G44-G43)</f>
-        <v>0.000513692997685185</v>
+        <v/>
       </c>
       <c r="F44" s="25"/>
-      <c r="G44" s="26" t="n">
-        <f aca="true">IF(C44="", "", IF(G44="", NOW(), G44))</f>
-        <v>44629.8657466621</v>
+      <c r="G44" s="26" t="str">
+        <f aca="true">IF(OR(C44="", $H$2=""), "", IF(G44="", NOW(), G44))</f>
+        <v/>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -8307,11 +8406,11 @@
     <mergeCell ref="F35:F44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8342,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="n">
-        <v>44631</v>
+        <v>44629</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -8355,7 +8454,7 @@
       </c>
       <c r="J1" s="10" t="n">
         <f aca="false">SUM(E5:E34)</f>
-        <v>0.0373089724189815</v>
+        <v>0.0366021623842593</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -8380,7 +8479,7 @@
       </c>
       <c r="B2" s="12" t="n">
         <f aca="true">IF(B1="", "", IF(B2="", NOW(), B2))</f>
-        <v>44631.6568057088</v>
+        <v>44629.816575814</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="6"/>
@@ -8393,7 +8492,7 @@
       </c>
       <c r="J2" s="10" t="n">
         <f aca="false">SUM(E5:E44)</f>
-        <v>0.0487666133101852</v>
+        <v>0.0491708480787037</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -8490,23 +8589,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="19" t="n">
         <f aca="false">IF(G5="", "",G5-$B$2 )</f>
-        <v>0.000407549699074074</v>
+        <v>0.00145075679398148</v>
       </c>
       <c r="E5" s="19" t="n">
         <f aca="false">IF(G5="", "", G5-B2)</f>
-        <v>0.000407549699074074</v>
+        <v>0.00145075679398148</v>
       </c>
       <c r="F5" s="20" t="n">
         <f aca="false">SUM(E5:E14)</f>
-        <v>0.0128870112962963</v>
+        <v>0.0125391064930556</v>
       </c>
       <c r="G5" s="12" t="n">
         <f aca="true">IF(C5="", "", IF(G5="", NOW(), G5))</f>
-        <v>44631.6572132585</v>
+        <v>44629.8180265708</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -8534,20 +8633,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" s="19" t="n">
         <f aca="false">IF(G6="", "",G6-$B$2 )</f>
-        <v>0.00135758890046296</v>
+        <v>0.0028982762037037</v>
       </c>
       <c r="E6" s="19" t="n">
         <f aca="false">IF(G6="", "", G6-G5)</f>
-        <v>0.000950039201388889</v>
+        <v>0.00144751939814815</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="12" t="n">
         <f aca="true">IF(C6="", "", IF(G6="", NOW(), G6))</f>
-        <v>44631.6581632977</v>
+        <v>44629.8194740902</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -8572,23 +8671,23 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="19" t="n">
         <f aca="false">IF(G7="", "",G7-$B$2 )</f>
-        <v>0.00336683170138889</v>
+        <v>0.00437014390046296</v>
       </c>
       <c r="E7" s="19" t="n">
         <f aca="false">IF(G7="", "", G7-G6)</f>
-        <v>0.00200924278935185</v>
+        <v>0.00147186769675926</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="12" t="n">
         <f aca="true">IF(C7="", "", IF(G7="", NOW(), G7))</f>
-        <v>44631.6601725405</v>
+        <v>44629.8209459579</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -8613,23 +8712,23 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8" s="19" t="n">
         <f aca="false">IF(G8="", "",G8-$B$2 )</f>
-        <v>0.00347051939814815</v>
+        <v>0.00582619299768519</v>
       </c>
       <c r="E8" s="19" t="n">
         <f aca="false">IF(G8="", "", G8-G7)</f>
-        <v>0.000103687696759259</v>
+        <v>0.00145604909722222</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="12" t="n">
         <f aca="true">IF(C8="", "", IF(G8="", NOW(), G8))</f>
-        <v>44631.6602762282</v>
+        <v>44629.822402007</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -8654,23 +8753,23 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" s="19" t="n">
         <f aca="false">IF(G9="", "",G9-$B$2 )</f>
-        <v>0.0042842987037037</v>
+        <v>0.00710101559027778</v>
       </c>
       <c r="E9" s="19" t="n">
         <f aca="false">IF(G9="", "", G9-G8)</f>
-        <v>0.000813779305555556</v>
+        <v>0.00127482260416667</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="12" t="n">
         <f aca="true">IF(C9="", "", IF(G9="", NOW(), G9))</f>
-        <v>44631.6610900075</v>
+        <v>44629.8236768296</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -8695,23 +8794,23 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D10" s="19" t="n">
         <f aca="false">IF(G10="", "",G10-$B$2 )</f>
-        <v>0.00450566030092593</v>
+        <v>0.00834725890046296</v>
       </c>
       <c r="E10" s="19" t="n">
         <f aca="false">IF(G10="", "", G10-G9)</f>
-        <v>0.000221361597222222</v>
+        <v>0.00124624329861111</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="12" t="n">
         <f aca="true">IF(C10="", "", IF(G10="", NOW(), G10))</f>
-        <v>44631.6613113691</v>
+        <v>44629.8249230729</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -8739,20 +8838,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" s="19" t="n">
         <f aca="false">IF(G11="", "",G11-$B$2 )</f>
-        <v>0.00694044329861111</v>
+        <v>0.00910151429398148</v>
       </c>
       <c r="E11" s="19" t="n">
         <f aca="false">IF(G11="", "", G11-G10)</f>
-        <v>0.00243478300925926</v>
+        <v>0.000754255405092593</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="12" t="n">
         <f aca="true">IF(C11="", "", IF(G11="", NOW(), G11))</f>
-        <v>44631.6637461521</v>
+        <v>44629.8256773283</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -8780,20 +8879,20 @@
         <v>7</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" s="19" t="n">
         <f aca="false">IF(G12="", "",G12-$B$2 )</f>
-        <v>0.00893414540509259</v>
+        <v>0.0109339173032407</v>
       </c>
       <c r="E12" s="19" t="n">
         <f aca="false">IF(G12="", "", G12-G11)</f>
-        <v>0.00199370209490741</v>
+        <v>0.00183240299768519</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="12" t="n">
         <f aca="true">IF(C12="", "", IF(G12="", NOW(), G12))</f>
-        <v>44631.6657398542</v>
+        <v>44629.8275097313</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -8821,20 +8920,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D13" s="19" t="n">
         <f aca="false">IF(G13="", "",G13-$B$2 )</f>
-        <v>0.0115303822916667</v>
+        <v>0.0111795223958333</v>
       </c>
       <c r="E13" s="19" t="n">
         <f aca="false">IF(G13="", "", G13-G12)</f>
-        <v>0.00259623689814815</v>
+        <v>0.000245605104166667</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="12" t="n">
         <f aca="true">IF(C13="", "", IF(G13="", NOW(), G13))</f>
-        <v>44631.6683360911</v>
+        <v>44629.8277553364</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -8862,20 +8961,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" s="19" t="n">
         <f aca="false">IF(G14="", "",G14-$B$2 )</f>
-        <v>0.0128870112962963</v>
+        <v>0.0125391065046296</v>
       </c>
       <c r="E14" s="19" t="n">
         <f aca="false">IF(G14="", "", G14-G13)</f>
-        <v>0.00135662900462963</v>
+        <v>0.00135958409722222</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="12" t="n">
         <f aca="true">IF(C14="", "", IF(G14="", NOW(), G14))</f>
-        <v>44631.6696927201</v>
+        <v>44629.8291149205</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -8905,23 +9004,23 @@
         <v>1</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D15" s="24" t="n">
         <f aca="false">IF(G15="", "",G15-$G$14 )</f>
-        <v>0.00241044460648148</v>
+        <v>0.00108989689814815</v>
       </c>
       <c r="E15" s="24" t="n">
         <f aca="false">IF(G15="", "", G15-G14)</f>
-        <v>0.00241044460648148</v>
+        <v>0.00108989689814815</v>
       </c>
       <c r="F15" s="25" t="n">
         <f aca="false">SUM(E15:E24)</f>
-        <v>0.0122958054166667</v>
+        <v>0.0120761556944444</v>
       </c>
       <c r="G15" s="26" t="n">
         <f aca="true">IF(C15="", "", IF(G15="", NOW(), G15))</f>
-        <v>44631.6721031647</v>
+        <v>44629.8302048174</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -8949,20 +9048,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D16" s="24" t="n">
         <f aca="false">IF(G16="", "",G16-$G$14 )</f>
-        <v>0.00308352430555556</v>
+        <v>0.00245604429398148</v>
       </c>
       <c r="E16" s="24" t="n">
         <f aca="false">IF(G16="", "", G16-G15)</f>
-        <v>0.000673079699074074</v>
+        <v>0.00136614739583333</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26" t="n">
         <f aca="true">IF(C16="", "", IF(G16="", NOW(), G16))</f>
-        <v>44631.6727762444</v>
+        <v>44629.8315709648</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -8987,23 +9086,23 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D17" s="24" t="n">
         <f aca="false">IF(G17="", "",G17-$G$14 )</f>
-        <v>0.00429359060185185</v>
+        <v>0.0029848587037037</v>
       </c>
       <c r="E17" s="24" t="n">
         <f aca="false">IF(G17="", "", G17-G16)</f>
-        <v>0.0012100662962963</v>
+        <v>0.000528814398148148</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="n">
         <f aca="true">IF(C17="", "", IF(G17="", NOW(), G17))</f>
-        <v>44631.6739863107</v>
+        <v>44629.8320997792</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -9028,23 +9127,23 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D18" s="24" t="n">
         <f aca="false">IF(G18="", "",G18-$G$14 )</f>
-        <v>0.00600083140046296</v>
+        <v>0.00413077668981482</v>
       </c>
       <c r="E18" s="24" t="n">
         <f aca="false">IF(G18="", "", G18-G17)</f>
-        <v>0.00170724079861111</v>
+        <v>0.00114591799768519</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="n">
         <f aca="true">IF(C18="", "", IF(G18="", NOW(), G18))</f>
-        <v>44631.6756935515</v>
+        <v>44629.8332456972</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -9072,20 +9171,20 @@
         <v>4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="24" t="n">
         <f aca="false">IF(G19="", "",G19-$G$14 )</f>
-        <v>0.00714961390046296</v>
+        <v>0.00524145149305556</v>
       </c>
       <c r="E19" s="24" t="n">
         <f aca="false">IF(G19="", "", G19-G18)</f>
-        <v>0.0011487825</v>
+        <v>0.00111067480324074</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="n">
         <f aca="true">IF(C19="", "", IF(G19="", NOW(), G19))</f>
-        <v>44631.676842334</v>
+        <v>44629.834356372</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -9113,20 +9212,20 @@
         <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D20" s="24" t="n">
         <f aca="false">IF(G20="", "",G20-$G$14 )</f>
-        <v>0.00818461920138889</v>
+        <v>0.00565044049768519</v>
       </c>
       <c r="E20" s="24" t="n">
         <f aca="false">IF(G20="", "", G20-G19)</f>
-        <v>0.00103500530092593</v>
+        <v>0.00040898900462963</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="n">
         <f aca="true">IF(C20="", "", IF(G20="", NOW(), G20))</f>
-        <v>44631.6778773393</v>
+        <v>44629.834765361</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -9154,20 +9253,20 @@
         <v>6</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="24" t="n">
         <f aca="false">IF(G21="", "",G21-$G$14 )</f>
-        <v>0.00920398180555555</v>
+        <v>0.00667611309027778</v>
       </c>
       <c r="E21" s="24" t="n">
         <f aca="false">IF(G21="", "", G21-G20)</f>
-        <v>0.00101936260416667</v>
+        <v>0.00102567259259259</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="n">
         <f aca="true">IF(C21="", "", IF(G21="", NOW(), G21))</f>
-        <v>44631.6788967019</v>
+        <v>44629.8357910336</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -9195,20 +9294,20 @@
         <v>7</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" s="24" t="n">
         <f aca="false">IF(G22="", "",G22-$G$14 )</f>
-        <v>0.00980226100694445</v>
+        <v>0.00840409989583333</v>
       </c>
       <c r="E22" s="24" t="n">
         <f aca="false">IF(G22="", "", G22-G21)</f>
-        <v>0.000598279201388889</v>
+        <v>0.00172798680555556</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="n">
         <f aca="true">IF(C22="", "", IF(G22="", NOW(), G22))</f>
-        <v>44631.6794949811</v>
+        <v>44629.8375190204</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -9236,20 +9335,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23" s="24" t="n">
         <f aca="false">IF(G23="", "",G23-$G$14 )</f>
-        <v>0.0117205127083333</v>
+        <v>0.0107603426967593</v>
       </c>
       <c r="E23" s="24" t="n">
         <f aca="false">IF(G23="", "", G23-G22)</f>
-        <v>0.00191825170138889</v>
+        <v>0.00235624280092593</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="n">
         <f aca="true">IF(C23="", "", IF(G23="", NOW(), G23))</f>
-        <v>44631.6814132328</v>
+        <v>44629.8398752632</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -9279,20 +9378,20 @@
         <v>10</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="24" t="n">
         <f aca="false">IF(G24="", "",G24-$G$14 )</f>
-        <v>0.0122958054050926</v>
+        <v>0.0120761556944444</v>
       </c>
       <c r="E24" s="24" t="n">
         <f aca="false">IF(G24="", "", G24-G23)</f>
-        <v>0.000575292708333333</v>
+        <v>0.00131581299768519</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="n">
         <f aca="true">IF(C24="", "", IF(G24="", NOW(), G24))</f>
-        <v>44631.6819885255</v>
+        <v>44629.8411910762</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -9322,23 +9421,23 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25" s="19" t="n">
         <f aca="false">IF(G25="", "",G25-$G$24 )</f>
-        <v>0.000382322395833333</v>
+        <v>0.00258664679398148</v>
       </c>
       <c r="E25" s="19" t="n">
         <f aca="false">IF(G25="", "", G25-G24)</f>
-        <v>0.000382322395833333</v>
+        <v>0.00258664679398148</v>
       </c>
       <c r="F25" s="20" t="n">
         <f aca="false">SUM(E25:E34)</f>
-        <v>0.0121261557060185</v>
+        <v>0.0119869001967593</v>
       </c>
       <c r="G25" s="12" t="n">
         <f aca="true">IF(C25="", "", IF(G25="", NOW(), G25))</f>
-        <v>44631.6823708479</v>
+        <v>44629.843777723</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -9366,20 +9465,20 @@
         <v>2</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D26" s="19" t="n">
         <f aca="false">IF(G26="", "",G26-$G$24 )</f>
-        <v>0.000453053194444444</v>
+        <v>0.00289285270833333</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">IF(G26="", "", G26-G25)</f>
-        <v>7.07307986111111E-005</v>
+        <v>0.000306205902777778</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="12" t="n">
         <f aca="true">IF(C26="", "", IF(G26="", NOW(), G26))</f>
-        <v>44631.6824415787</v>
+        <v>44629.8440839289</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -9407,20 +9506,20 @@
         <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27" s="19" t="n">
         <f aca="false">IF(G27="", "",G27-$G$24 )</f>
-        <v>0.00303393099537037</v>
+        <v>0.0035925787037037</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">IF(G27="", "", G27-G26)</f>
-        <v>0.00258087780092593</v>
+        <v>0.00069972599537037</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="12" t="n">
         <f aca="true">IF(C27="", "", IF(G27="", NOW(), G27))</f>
-        <v>44631.6850224565</v>
+        <v>44629.8447836549</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -9448,20 +9547,20 @@
         <v>4</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" s="19" t="n">
         <f aca="false">IF(G28="", "",G28-$G$24 )</f>
-        <v>0.0043485675</v>
+        <v>0.0037237937962963</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">IF(G28="", "", G28-G27)</f>
-        <v>0.00131463650462963</v>
+        <v>0.000131215104166667</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="12" t="n">
         <f aca="true">IF(C28="", "", IF(G28="", NOW(), G28))</f>
-        <v>44631.686337093</v>
+        <v>44629.84491487</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -9489,20 +9588,20 @@
         <v>5</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D29" s="19" t="n">
         <f aca="false">IF(G29="", "",G29-$G$24 )</f>
-        <v>0.00596047909722222</v>
+        <v>0.00527652009259259</v>
       </c>
       <c r="E29" s="19" t="n">
         <f aca="false">IF(G29="", "", G29-G28)</f>
-        <v>0.00161191159722222</v>
+        <v>0.0015527262962963</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="12" t="n">
         <f aca="true">IF(C29="", "", IF(G29="", NOW(), G29))</f>
-        <v>44631.6879490046</v>
+        <v>44629.8464675963</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -9527,23 +9626,23 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="19" t="n">
         <f aca="false">IF(G30="", "",G30-$G$24 )</f>
-        <v>0.00641492918981481</v>
+        <v>0.00600457390046296</v>
       </c>
       <c r="E30" s="19" t="n">
         <f aca="false">IF(G30="", "", G30-G29)</f>
-        <v>0.000454450104166667</v>
+        <v>0.00072805380787037</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="12" t="n">
         <f aca="true">IF(C30="", "", IF(G30="", NOW(), G30))</f>
-        <v>44631.6884034547</v>
+        <v>44629.8471956501</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -9568,23 +9667,23 @@
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D31" s="19" t="n">
         <f aca="false">IF(G31="", "",G31-$G$24 )</f>
-        <v>0.00694732059027778</v>
+        <v>0.00806951079861111</v>
       </c>
       <c r="E31" s="19" t="n">
         <f aca="false">IF(G31="", "", G31-G30)</f>
-        <v>0.000532391400462963</v>
+        <v>0.00206493689814815</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="12" t="n">
         <f aca="true">IF(C31="", "", IF(G31="", NOW(), G31))</f>
-        <v>44631.6889358461</v>
+        <v>44629.849260587</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -9609,23 +9708,23 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32" s="19" t="n">
         <f aca="false">IF(G32="", "",G32-$G$24 )</f>
-        <v>0.00901610159722222</v>
+        <v>0.00855534849537037</v>
       </c>
       <c r="E32" s="19" t="n">
         <f aca="false">IF(G32="", "", G32-G31)</f>
-        <v>0.00206878100694444</v>
+        <v>0.000485837696759259</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="12" t="n">
         <f aca="true">IF(C32="", "", IF(G32="", NOW(), G32))</f>
-        <v>44631.6910046271</v>
+        <v>44629.8497464247</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -9650,23 +9749,20 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="19" t="n">
-        <f aca="false">IF(G33="", "",G33-$G$24 )</f>
-        <v>0.0108477842939815</v>
+        <v>0.00855534853009259</v>
       </c>
       <c r="E33" s="19" t="n">
-        <f aca="false">IF(G33="", "", G33-G32)</f>
-        <v>0.00183168269675926</v>
+        <v>0</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="12" t="n">
-        <f aca="true">IF(C33="", "", IF(G33="", NOW(), G33))</f>
-        <v>44631.6928363098</v>
+        <v>44629.8497464247</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -9696,20 +9792,20 @@
         <v>10</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="19" t="n">
         <f aca="false">IF(G34="", "",G34-$G$24 )</f>
-        <v>0.0121261556944444</v>
+        <v>0.0119869001967593</v>
       </c>
       <c r="E34" s="19" t="n">
         <f aca="false">IF(G34="", "", G34-G33)</f>
-        <v>0.00127837140046296</v>
+        <v>0.00343155170138889</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="12" t="n">
         <f aca="true">IF(C34="", "", IF(G34="", NOW(), G34))</f>
-        <v>44631.6941146812</v>
+        <v>44629.8531779764</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -9739,23 +9835,23 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D35" s="24" t="n">
         <f aca="false">IF(G35="", "",G35-$G$34 )</f>
-        <v>0.000495056793981482</v>
+        <v>0.000521118796296296</v>
       </c>
       <c r="E35" s="24" t="n">
         <f aca="false">IF(G35="", "", G35-G34)</f>
-        <v>0.000495056793981482</v>
+        <v>0.000521118796296296</v>
       </c>
       <c r="F35" s="25" t="n">
         <f aca="false">SUM(E35:E44)</f>
-        <v>0.0114576408912037</v>
+        <v>0.0125686856944444</v>
       </c>
       <c r="G35" s="26" t="n">
         <f aca="true">IF(C35="", "", IF(G35="", NOW(), G35))</f>
-        <v>44631.694609738</v>
+        <v>44629.8536990952</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -9783,20 +9879,20 @@
         <v>2</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D36" s="24" t="n">
         <f aca="false">IF(G36="", "",G36-$G$34 )</f>
-        <v>0.0024915962962963</v>
+        <v>0.00270641769675926</v>
       </c>
       <c r="E36" s="24" t="n">
         <f aca="false">IF(G36="", "", G36-G35)</f>
-        <v>0.00199653950231481</v>
+        <v>0.00218529890046296</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26" t="n">
         <f aca="true">IF(C36="", "", IF(G36="", NOW(), G36))</f>
-        <v>44631.6966062775</v>
+        <v>44629.8558843941</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -9824,20 +9920,20 @@
         <v>3</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D37" s="24" t="n">
         <f aca="false">IF(G37="", "",G37-$G$34 )</f>
-        <v>0.00552419409722222</v>
+        <v>0.00511151310185185</v>
       </c>
       <c r="E37" s="24" t="n">
         <f aca="false">IF(G37="", "", G37-G36)</f>
-        <v>0.00303259780092593</v>
+        <v>0.00240509540509259</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26" t="n">
         <f aca="true">IF(C37="", "", IF(G37="", NOW(), G37))</f>
-        <v>44631.6996388753</v>
+        <v>44629.8582894895</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -9865,20 +9961,20 @@
         <v>4</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D38" s="24" t="n">
         <f aca="false">IF(G38="", "",G38-$G$34 )</f>
-        <v>0.00607231679398148</v>
+        <v>0.0056173937962963</v>
       </c>
       <c r="E38" s="24" t="n">
         <f aca="false">IF(G38="", "", G38-G37)</f>
-        <v>0.000548122696759259</v>
+        <v>0.000505880694444444</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26" t="n">
         <f aca="true">IF(C38="", "", IF(G38="", NOW(), G38))</f>
-        <v>44631.700186998</v>
+        <v>44629.8587953702</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -9906,20 +10002,20 @@
         <v>5</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D39" s="24" t="n">
         <f aca="false">IF(G39="", "",G39-$G$34 )</f>
-        <v>0.00671436390046296</v>
+        <v>0.00591988430555556</v>
       </c>
       <c r="E39" s="24" t="n">
         <f aca="false">IF(G39="", "", G39-G38)</f>
-        <v>0.000642047094907407</v>
+        <v>0.000302490497685185</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="n">
         <f aca="true">IF(C39="", "", IF(G39="", NOW(), G39))</f>
-        <v>44631.7008290451</v>
+        <v>44629.8590978607</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -9947,20 +10043,20 @@
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D40" s="24" t="n">
         <f aca="false">IF(G40="", "",G40-$G$34 )</f>
-        <v>0.00798592909722222</v>
+        <v>0.00603691399305556</v>
       </c>
       <c r="E40" s="24" t="n">
         <f aca="false">IF(G40="", "", G40-G39)</f>
-        <v>0.00127156520833333</v>
+        <v>0.000117029699074074</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26" t="n">
         <f aca="true">IF(C40="", "", IF(G40="", NOW(), G40))</f>
-        <v>44631.7021006103</v>
+        <v>44629.8592148904</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -9985,23 +10081,23 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="B41" s="22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41" s="24" t="n">
         <f aca="false">IF(G41="", "",G41-$G$34 )</f>
-        <v>0.00927712530092593</v>
+        <v>0.00976059549768518</v>
       </c>
       <c r="E41" s="24" t="n">
         <f aca="false">IF(G41="", "", G41-G40)</f>
-        <v>0.00129119619212963</v>
+        <v>0.00372368150462963</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="26" t="n">
         <f aca="true">IF(C41="", "", IF(G41="", NOW(), G41))</f>
-        <v>44631.7033918065</v>
+        <v>44629.8629385719</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -10026,23 +10122,23 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
       <c r="B42" s="22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D42" s="24" t="n">
         <f aca="false">IF(G42="", "",G42-$G$34 )</f>
-        <v>0.0105980612962963</v>
+        <v>0.0111230248958333</v>
       </c>
       <c r="E42" s="24" t="n">
         <f aca="false">IF(G42="", "", G42-G41)</f>
-        <v>0.00132093600694444</v>
+        <v>0.00136242939814815</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="26" t="n">
         <f aca="true">IF(C42="", "", IF(G42="", NOW(), G42))</f>
-        <v>44631.7047127425</v>
+        <v>44629.8643010013</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -10067,23 +10163,23 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
       <c r="B43" s="22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43" s="24" t="n">
         <f aca="false">IF(G43="", "",G43-$G$34 )</f>
-        <v>0.0107291468055556</v>
+        <v>0.0120549926967593</v>
       </c>
       <c r="E43" s="24" t="n">
         <f aca="false">IF(G43="", "", G43-G42)</f>
-        <v>0.000131085497685185</v>
+        <v>0.000931967800925926</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="26" t="n">
         <f aca="true">IF(C43="", "", IF(G43="", NOW(), G43))</f>
-        <v>44631.704843828</v>
+        <v>44629.8652329691</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -10113,20 +10209,20 @@
         <v>10</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44" s="24" t="n">
         <f aca="false">IF(G44="", "",G44-$G$34 )</f>
-        <v>0.0114576408912037</v>
+        <v>0.0125686856944444</v>
       </c>
       <c r="E44" s="24" t="n">
         <f aca="false">IF(G44="", "", G44-G43)</f>
-        <v>0.000728494097222222</v>
+        <v>0.000513692997685185</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="26" t="n">
         <f aca="true">IF(C44="", "", IF(G44="", NOW(), G44))</f>
-        <v>44631.7055723221</v>
+        <v>44629.8657466621</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -11729,7 +11825,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -11754,7 +11850,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
@@ -11764,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="n">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -11776,7 +11871,8 @@
         <v>1</v>
       </c>
       <c r="J1" s="10" t="n">
-        <v>0.0366021624884259</v>
+        <f aca="false">SUM(E5:E34)</f>
+        <v>0.0373089724189815</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -11800,7 +11896,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="n">
-        <v>44629.816575814</v>
+        <f aca="true">IF(B1="", "", IF(B2="", NOW(), B2))</f>
+        <v>44631.6568057088</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="6"/>
@@ -11812,7 +11909,8 @@
         <v>3</v>
       </c>
       <c r="J2" s="10" t="n">
-        <v>0.0491708481481481</v>
+        <f aca="false">SUM(E5:E44)</f>
+        <v>0.0487666133101852</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -11909,23 +12007,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="19" t="n">
-        <v>0.00145075685185185</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>0.00145075685185185</v>
+        <f aca="false">IF(G5="", "",G5-$B$2 )</f>
+        <v>0.000407549699074074</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <f aca="false">IF(G5="", "", G5-B2)</f>
+        <v>0.000407549699074074</v>
       </c>
       <c r="F5" s="20" t="n">
-        <v>0.0125391065162037</v>
+        <f aca="false">SUM(E5:E14)</f>
+        <v>0.0128870112962963</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>44629.8180265708</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>27</v>
-      </c>
+        <f aca="true">IF(C5="", "", IF(G5="", NOW(), G5))</f>
+        <v>44631.6572132585</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -11947,25 +12047,26 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16"/>
-      <c r="B6" s="29" t="n">
+      <c r="B6" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D6" s="19" t="n">
-        <v>0.00289827625</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>0.00144751939814815</v>
+        <f aca="false">IF(G6="", "",G6-$B$2 )</f>
+        <v>0.00135758890046296</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <f aca="false">IF(G6="", "", G6-G5)</f>
+        <v>0.000950039201388889</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="12" t="n">
-        <v>44629.8194740902</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>28</v>
-      </c>
+        <f aca="true">IF(C6="", "", IF(G6="", NOW(), G6))</f>
+        <v>44631.6581632977</v>
+      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -11987,25 +12088,26 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
-      <c r="B7" s="29" t="n">
-        <v>9</v>
+      <c r="B7" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D7" s="19" t="n">
-        <v>0.00437014391203704</v>
-      </c>
-      <c r="E7" s="27" t="n">
-        <v>0.00147186766203704</v>
+        <f aca="false">IF(G7="", "",G7-$B$2 )</f>
+        <v>0.00336683170138889</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <f aca="false">IF(G7="", "", G7-G6)</f>
+        <v>0.00200924278935185</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="12" t="n">
-        <v>44629.8209459579</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>29</v>
-      </c>
+        <f aca="true">IF(C7="", "", IF(G7="", NOW(), G7))</f>
+        <v>44631.6601725405</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -12028,24 +12130,25 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" s="19" t="n">
-        <v>0.00582619305555556</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>0.00145604914351852</v>
+        <f aca="false">IF(G8="", "",G8-$B$2 )</f>
+        <v>0.00347051939814815</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <f aca="false">IF(G8="", "", G8-G7)</f>
+        <v>0.000103687696759259</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="12" t="n">
-        <v>44629.822402007</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>30</v>
-      </c>
+        <f aca="true">IF(C8="", "", IF(G8="", NOW(), G8))</f>
+        <v>44631.6602762282</v>
+      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -12068,24 +12171,25 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="19" t="n">
-        <v>0.00710101569444444</v>
+        <f aca="false">IF(G9="", "",G9-$B$2 )</f>
+        <v>0.0042842987037037</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>0.00127482263888889</v>
+        <f aca="false">IF(G9="", "", G9-G8)</f>
+        <v>0.000813779305555556</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="12" t="n">
-        <v>44629.8236768296</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
+        <f aca="true">IF(C9="", "", IF(G9="", NOW(), G9))</f>
+        <v>44631.6610900075</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -12107,21 +12211,24 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
-      <c r="B10" s="29" t="n">
-        <v>5</v>
+      <c r="B10" s="17" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D10" s="19" t="n">
-        <v>0.00834725892361111</v>
+        <f aca="false">IF(G10="", "",G10-$B$2 )</f>
+        <v>0.00450566030092593</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>0.00124624324074074</v>
+        <f aca="false">IF(G10="", "", G10-G9)</f>
+        <v>0.000221361597222222</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="12" t="n">
-        <v>44629.8249230729</v>
+        <f aca="true">IF(C10="", "", IF(G10="", NOW(), G10))</f>
+        <v>44631.6613113691</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -12145,21 +12252,24 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
-      <c r="B11" s="29" t="n">
+      <c r="B11" s="17" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="19" t="n">
-        <v>0.00910151436342593</v>
+        <f aca="false">IF(G11="", "",G11-$B$2 )</f>
+        <v>0.00694044329861111</v>
       </c>
       <c r="E11" s="19" t="n">
-        <v>0.000754255439814815</v>
+        <f aca="false">IF(G11="", "", G11-G10)</f>
+        <v>0.00243478300925926</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="12" t="n">
-        <v>44629.8256773283</v>
+        <f aca="true">IF(C11="", "", IF(G11="", NOW(), G11))</f>
+        <v>44631.6637461521</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -12187,21 +12297,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19" t="n">
-        <v>0.010933917337963</v>
-      </c>
-      <c r="E12" s="27" t="n">
-        <v>0.00183240298611111</v>
+        <f aca="false">IF(G12="", "",G12-$B$2 )</f>
+        <v>0.00893414540509259</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <f aca="false">IF(G12="", "", G12-G11)</f>
+        <v>0.00199370209490741</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="12" t="n">
-        <v>44629.8275097313</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>33</v>
-      </c>
+        <f aca="true">IF(C12="", "", IF(G12="", NOW(), G12))</f>
+        <v>44631.6657398542</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -12227,17 +12338,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D13" s="19" t="n">
-        <v>0.0111795225115741</v>
+        <f aca="false">IF(G13="", "",G13-$B$2 )</f>
+        <v>0.0115303822916667</v>
       </c>
       <c r="E13" s="19" t="n">
-        <v>0.000245605162037037</v>
+        <f aca="false">IF(G13="", "", G13-G12)</f>
+        <v>0.00259623689814815</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="12" t="n">
-        <v>44629.8277553364</v>
+        <f aca="true">IF(C13="", "", IF(G13="", NOW(), G13))</f>
+        <v>44631.6683360911</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -12261,21 +12375,24 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
-      <c r="B14" s="29" t="n">
+      <c r="B14" s="17" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D14" s="19" t="n">
-        <v>0.0125391065046296</v>
+        <f aca="false">IF(G14="", "",G14-$B$2 )</f>
+        <v>0.0128870112962963</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>0.00135958399305556</v>
+        <f aca="false">IF(G14="", "", G14-G13)</f>
+        <v>0.00135662900462963</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="12" t="n">
-        <v>44629.8291149205</v>
+        <f aca="true">IF(C14="", "", IF(G14="", NOW(), G14))</f>
+        <v>44631.6696927201</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -12305,19 +12422,23 @@
         <v>1</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>0.00108989690972222</v>
+        <f aca="false">IF(G15="", "",G15-$G$14 )</f>
+        <v>0.00241044460648148</v>
       </c>
       <c r="E15" s="24" t="n">
-        <v>0.00108989690972222</v>
+        <f aca="false">IF(G15="", "", G15-G14)</f>
+        <v>0.00241044460648148</v>
       </c>
       <c r="F15" s="25" t="n">
-        <v>0.0120761557523148</v>
+        <f aca="false">SUM(E15:E24)</f>
+        <v>0.0122958054166667</v>
       </c>
       <c r="G15" s="26" t="n">
-        <v>44629.8302048174</v>
+        <f aca="true">IF(C15="", "", IF(G15="", NOW(), G15))</f>
+        <v>44631.6721031647</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12345,17 +12466,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>0.00245604436342593</v>
+        <f aca="false">IF(G16="", "",G16-$G$14 )</f>
+        <v>0.00308352430555556</v>
       </c>
       <c r="E16" s="24" t="n">
-        <v>0.0013661474537037</v>
+        <f aca="false">IF(G16="", "", G16-G15)</f>
+        <v>0.000673079699074074</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26" t="n">
-        <v>44629.8315709648</v>
+        <f aca="true">IF(C16="", "", IF(G16="", NOW(), G16))</f>
+        <v>44631.6727762444</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -12380,20 +12504,23 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>0.00298485878472222</v>
+        <f aca="false">IF(G17="", "",G17-$G$14 )</f>
+        <v>0.00429359060185185</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>0.000528814421296296</v>
+        <f aca="false">IF(G17="", "", G17-G16)</f>
+        <v>0.0012100662962963</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="n">
-        <v>44629.8320997792</v>
+        <f aca="true">IF(C17="", "", IF(G17="", NOW(), G17))</f>
+        <v>44631.6739863107</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -12418,24 +12545,25 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>0.00413077675925926</v>
+        <f aca="false">IF(G18="", "",G18-$G$14 )</f>
+        <v>0.00600083140046296</v>
       </c>
       <c r="E18" s="24" t="n">
-        <v>0.00114591797453704</v>
+        <f aca="false">IF(G18="", "", G18-G17)</f>
+        <v>0.00170724079861111</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="n">
-        <v>44629.8332456972</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>29</v>
-      </c>
+        <f aca="true">IF(C18="", "", IF(G18="", NOW(), G18))</f>
+        <v>44631.6756935515</v>
+      </c>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -12457,21 +12585,24 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="22" t="n">
         <v>4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>0.00524145158564815</v>
+        <f aca="false">IF(G19="", "",G19-$G$14 )</f>
+        <v>0.00714961390046296</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>0.00111067482638889</v>
+        <f aca="false">IF(G19="", "", G19-G18)</f>
+        <v>0.0011487825</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="n">
-        <v>44629.834356372</v>
+        <f aca="true">IF(C19="", "", IF(G19="", NOW(), G19))</f>
+        <v>44631.676842334</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -12495,21 +12626,24 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="22" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>0.00565044053240741</v>
+        <f aca="false">IF(G20="", "",G20-$G$14 )</f>
+        <v>0.00818461920138889</v>
       </c>
       <c r="E20" s="24" t="n">
-        <v>0.000408988935185185</v>
+        <f aca="false">IF(G20="", "", G20-G19)</f>
+        <v>0.00103500530092593</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="n">
-        <v>44629.834765361</v>
+        <f aca="true">IF(C20="", "", IF(G20="", NOW(), G20))</f>
+        <v>44631.6778773393</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -12533,21 +12667,24 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="22" t="n">
         <v>6</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D21" s="24" t="n">
-        <v>0.00667611319444444</v>
+        <f aca="false">IF(G21="", "",G21-$G$14 )</f>
+        <v>0.00920398180555555</v>
       </c>
       <c r="E21" s="24" t="n">
-        <v>0.00102567266203704</v>
+        <f aca="false">IF(G21="", "", G21-G20)</f>
+        <v>0.00101936260416667</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="n">
-        <v>44629.8357910336</v>
+        <f aca="true">IF(C21="", "", IF(G21="", NOW(), G21))</f>
+        <v>44631.6788967019</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -12575,21 +12712,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>0.00840409997685185</v>
-      </c>
-      <c r="E22" s="27" t="n">
-        <v>0.00172798679398148</v>
+        <f aca="false">IF(G22="", "",G22-$G$14 )</f>
+        <v>0.00980226100694445</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <f aca="false">IF(G22="", "", G22-G21)</f>
+        <v>0.000598279201388889</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="n">
-        <v>44629.8375190204</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>32</v>
-      </c>
+        <f aca="true">IF(C22="", "", IF(G22="", NOW(), G22))</f>
+        <v>44631.6794949811</v>
+      </c>
+      <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -12611,25 +12749,26 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="22" t="n">
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>0.0107603427430556</v>
-      </c>
-      <c r="E23" s="35" t="n">
-        <v>0.00235624275462963</v>
+        <f aca="false">IF(G23="", "",G23-$G$14 )</f>
+        <v>0.0117205127083333</v>
+      </c>
+      <c r="E23" s="24" t="n">
+        <f aca="false">IF(G23="", "", G23-G22)</f>
+        <v>0.00191825170138889</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="n">
-        <v>44629.8398752632</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>27</v>
-      </c>
+        <f aca="true">IF(C23="", "", IF(G23="", NOW(), G23))</f>
+        <v>44631.6814132328</v>
+      </c>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -12650,22 +12789,27 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
+      <c r="A24" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B24" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>35</v>
+      <c r="C24" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>0.0120761557523148</v>
+        <f aca="false">IF(G24="", "",G24-$G$14 )</f>
+        <v>0.0122958054050926</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>0.00131581302083333</v>
+        <f aca="false">IF(G24="", "", G24-G23)</f>
+        <v>0.000575292708333333</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="n">
-        <v>44629.8411910762</v>
+        <f aca="true">IF(C24="", "", IF(G24="", NOW(), G24))</f>
+        <v>44631.6819885255</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -12695,24 +12839,25 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D25" s="19" t="n">
-        <v>0.00258664684027778</v>
-      </c>
-      <c r="E25" s="35" t="n">
-        <v>0.00258664684027778</v>
+        <f aca="false">IF(G25="", "",G25-$G$24 )</f>
+        <v>0.000382322395833333</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <f aca="false">IF(G25="", "", G25-G24)</f>
+        <v>0.000382322395833333</v>
       </c>
       <c r="F25" s="20" t="n">
         <f aca="false">SUM(E25:E34)</f>
-        <v>0.0119869002314815</v>
+        <v>0.0121261557060185</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>44629.843777723</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>28</v>
-      </c>
+        <f aca="true">IF(C25="", "", IF(G25="", NOW(), G25))</f>
+        <v>44631.6823708479</v>
+      </c>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -12734,21 +12879,24 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
-      <c r="B26" s="29" t="n">
+      <c r="B26" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D26" s="19" t="n">
-        <v>0.00289285265046296</v>
+        <f aca="false">IF(G26="", "",G26-$G$24 )</f>
+        <v>0.000453053194444444</v>
       </c>
       <c r="E26" s="19" t="n">
-        <v>0.000306205810185185</v>
+        <f aca="false">IF(G26="", "", G26-G25)</f>
+        <v>7.07307986111111E-005</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="12" t="n">
-        <v>44629.8440839289</v>
+        <f aca="true">IF(C26="", "", IF(G26="", NOW(), G26))</f>
+        <v>44631.6824415787</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -12776,17 +12924,20 @@
         <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D27" s="19" t="n">
-        <v>0.00359257873842593</v>
+        <f aca="false">IF(G27="", "",G27-$G$24 )</f>
+        <v>0.00303393099537037</v>
       </c>
       <c r="E27" s="19" t="n">
-        <v>0.000699726087962963</v>
+        <f aca="false">IF(G27="", "", G27-G26)</f>
+        <v>0.00258087780092593</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="12" t="n">
-        <v>44629.8447836549</v>
+        <f aca="true">IF(C27="", "", IF(G27="", NOW(), G27))</f>
+        <v>44631.6850224565</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12814,17 +12965,20 @@
         <v>4</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D28" s="19" t="n">
-        <v>0.00372379380787037</v>
+        <f aca="false">IF(G28="", "",G28-$G$24 )</f>
+        <v>0.0043485675</v>
       </c>
       <c r="E28" s="19" t="n">
-        <v>0.000131215069444444</v>
+        <f aca="false">IF(G28="", "", G28-G27)</f>
+        <v>0.00131463650462963</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="12" t="n">
-        <v>44629.84491487</v>
+        <f aca="true">IF(C28="", "", IF(G28="", NOW(), G28))</f>
+        <v>44631.686337093</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -12852,21 +13006,22 @@
         <v>5</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="19" t="n">
-        <v>0.00527652012731481</v>
-      </c>
-      <c r="E29" s="27" t="n">
-        <v>0.00155272631944444</v>
+        <f aca="false">IF(G29="", "",G29-$G$24 )</f>
+        <v>0.00596047909722222</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <f aca="false">IF(G29="", "", G29-G28)</f>
+        <v>0.00161191159722222</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="12" t="n">
-        <v>44629.8464675963</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>36</v>
-      </c>
+        <f aca="true">IF(C29="", "", IF(G29="", NOW(), G29))</f>
+        <v>44631.6879490046</v>
+      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -12889,20 +13044,23 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" s="19" t="n">
-        <v>0.00600457388888889</v>
+        <f aca="false">IF(G30="", "",G30-$G$24 )</f>
+        <v>0.00641492918981481</v>
       </c>
       <c r="E30" s="19" t="n">
-        <v>0.000728053761574074</v>
+        <f aca="false">IF(G30="", "", G30-G29)</f>
+        <v>0.000454450104166667</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="12" t="n">
-        <v>44629.8471956501</v>
+        <f aca="true">IF(C30="", "", IF(G30="", NOW(), G30))</f>
+        <v>44631.6884034547</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -12926,25 +13084,26 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
-      <c r="B31" s="29" t="n">
-        <v>7</v>
+      <c r="B31" s="17" t="n">
+        <v>9</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D31" s="19" t="n">
-        <v>0.00806951083333333</v>
-      </c>
-      <c r="E31" s="27" t="n">
-        <v>0.00206493694444444</v>
+        <f aca="false">IF(G31="", "",G31-$G$24 )</f>
+        <v>0.00694732059027778</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <f aca="false">IF(G31="", "", G31-G30)</f>
+        <v>0.000532391400462963</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="12" t="n">
-        <v>44629.849260587</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>33</v>
-      </c>
+        <f aca="true">IF(C31="", "", IF(G31="", NOW(), G31))</f>
+        <v>44631.6889358461</v>
+      </c>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -12966,21 +13125,24 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
-      <c r="B32" s="29" t="n">
-        <v>8</v>
+      <c r="B32" s="17" t="n">
+        <v>7</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D32" s="19" t="n">
-        <v>0.00855534853009259</v>
+        <f aca="false">IF(G32="", "",G32-$G$24 )</f>
+        <v>0.00901610159722222</v>
       </c>
       <c r="E32" s="19" t="n">
-        <v>0.000485837696759259</v>
+        <f aca="false">IF(G32="", "", G32-G31)</f>
+        <v>0.00206878100694444</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="12" t="n">
-        <v>44629.8497464247</v>
+        <f aca="true">IF(C32="", "", IF(G32="", NOW(), G32))</f>
+        <v>44631.6910046271</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -13005,20 +13167,23 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D33" s="19" t="n">
-        <v>0.00855534853009259</v>
+        <f aca="false">IF(G33="", "",G33-$G$24 )</f>
+        <v>0.0108477842939815</v>
       </c>
       <c r="E33" s="19" t="n">
-        <v>0</v>
+        <f aca="false">IF(G33="", "", G33-G32)</f>
+        <v>0.00183168269675926</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="12" t="n">
-        <v>44629.8497464247</v>
+        <f aca="true">IF(C33="", "", IF(G33="", NOW(), G33))</f>
+        <v>44631.6928363098</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -13047,22 +13212,23 @@
       <c r="B34" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>38</v>
+      <c r="C34" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="19" t="n">
-        <v>0.0119869002314815</v>
-      </c>
-      <c r="E34" s="35" t="n">
-        <v>0.00343155170138889</v>
+        <f aca="false">IF(G34="", "",G34-$G$24 )</f>
+        <v>0.0121261556944444</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <f aca="false">IF(G34="", "", G34-G33)</f>
+        <v>0.00127837140046296</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="12" t="n">
-        <v>44629.8531779764</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>39</v>
-      </c>
+        <f aca="true">IF(C34="", "", IF(G34="", NOW(), G34))</f>
+        <v>44631.6941146812</v>
+      </c>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -13089,24 +13255,26 @@
       <c r="B35" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>40</v>
+      <c r="C35" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="24" t="n">
-        <v>0.00052111875</v>
+        <f aca="false">IF(G35="", "",G35-$G$34 )</f>
+        <v>0.000495056793981482</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>0.00052111875</v>
+        <f aca="false">IF(G35="", "", G35-G34)</f>
+        <v>0.000495056793981482</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>0.0125686856597222</v>
+        <f aca="false">SUM(E35:E44)</f>
+        <v>0.0114576408912037</v>
       </c>
       <c r="G35" s="26" t="n">
-        <v>44629.8536990952</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>41</v>
-      </c>
+        <f aca="true">IF(C35="", "", IF(G35="", NOW(), G35))</f>
+        <v>44631.694609738</v>
+      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -13132,21 +13300,22 @@
         <v>2</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D36" s="24" t="n">
-        <v>0.00270641768518518</v>
-      </c>
-      <c r="E36" s="35" t="n">
-        <v>0.00218529893518518</v>
+        <f aca="false">IF(G36="", "",G36-$G$34 )</f>
+        <v>0.0024915962962963</v>
+      </c>
+      <c r="E36" s="24" t="n">
+        <f aca="false">IF(G36="", "", G36-G35)</f>
+        <v>0.00199653950231481</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26" t="n">
-        <v>44629.8558843941</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>33</v>
-      </c>
+        <f aca="true">IF(C36="", "", IF(G36="", NOW(), G36))</f>
+        <v>44631.6966062775</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -13168,25 +13337,26 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
-      <c r="B37" s="34" t="n">
+      <c r="B37" s="22" t="n">
         <v>3</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D37" s="24" t="n">
-        <v>0.00511151302083333</v>
-      </c>
-      <c r="E37" s="35" t="n">
-        <v>0.00240509534722222</v>
+        <f aca="false">IF(G37="", "",G37-$G$34 )</f>
+        <v>0.00552419409722222</v>
+      </c>
+      <c r="E37" s="24" t="n">
+        <f aca="false">IF(G37="", "", G37-G36)</f>
+        <v>0.00303259780092593</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26" t="n">
-        <v>44629.8582894895</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>27</v>
-      </c>
+        <f aca="true">IF(C37="", "", IF(G37="", NOW(), G37))</f>
+        <v>44631.6996388753</v>
+      </c>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -13208,21 +13378,24 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
-      <c r="B38" s="34" t="n">
+      <c r="B38" s="22" t="n">
         <v>4</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>0.0056173937962963</v>
+        <f aca="false">IF(G38="", "",G38-$G$34 )</f>
+        <v>0.00607231679398148</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>0.000505880763888889</v>
+        <f aca="false">IF(G38="", "", G38-G37)</f>
+        <v>0.000548122696759259</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26" t="n">
-        <v>44629.8587953702</v>
+        <f aca="true">IF(C38="", "", IF(G38="", NOW(), G38))</f>
+        <v>44631.700186998</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -13246,21 +13419,24 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
-      <c r="B39" s="34" t="n">
+      <c r="B39" s="22" t="n">
         <v>5</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>0.00591988423611111</v>
+        <f aca="false">IF(G39="", "",G39-$G$34 )</f>
+        <v>0.00671436390046296</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>0.000302490439814815</v>
+        <f aca="false">IF(G39="", "", G39-G38)</f>
+        <v>0.000642047094907407</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="n">
-        <v>44629.8590978607</v>
+        <f aca="true">IF(C39="", "", IF(G39="", NOW(), G39))</f>
+        <v>44631.7008290451</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -13288,17 +13464,20 @@
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>0.00603691398148148</v>
+        <f aca="false">IF(G40="", "",G40-$G$34 )</f>
+        <v>0.00798592909722222</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>0.00011702974537037</v>
+        <f aca="false">IF(G40="", "", G40-G39)</f>
+        <v>0.00127156520833333</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26" t="n">
-        <v>44629.8592148904</v>
+        <f aca="true">IF(C40="", "", IF(G40="", NOW(), G40))</f>
+        <v>44631.7021006103</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -13323,24 +13502,25 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="B41" s="22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>0.00976059547453704</v>
-      </c>
-      <c r="E41" s="35" t="n">
-        <v>0.00372368149305555</v>
+        <f aca="false">IF(G41="", "",G41-$G$34 )</f>
+        <v>0.00927712530092593</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <f aca="false">IF(G41="", "", G41-G40)</f>
+        <v>0.00129119619212963</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="26" t="n">
-        <v>44629.8629385719</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>27</v>
-      </c>
+        <f aca="true">IF(C41="", "", IF(G41="", NOW(), G41))</f>
+        <v>44631.7033918065</v>
+      </c>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -13362,21 +13542,24 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
-      <c r="B42" s="34" t="n">
-        <v>8</v>
+      <c r="B42" s="22" t="n">
+        <v>7</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>0.011123024849537</v>
+        <f aca="false">IF(G42="", "",G42-$G$34 )</f>
+        <v>0.0105980612962963</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>0.001362429375</v>
+        <f aca="false">IF(G42="", "", G42-G41)</f>
+        <v>0.00132093600694444</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="26" t="n">
-        <v>44629.8643010013</v>
+        <f aca="true">IF(C42="", "", IF(G42="", NOW(), G42))</f>
+        <v>44631.7047127425</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -13400,21 +13583,24 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
-      <c r="B43" s="34" t="n">
-        <v>9</v>
+      <c r="B43" s="22" t="n">
+        <v>8</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D43" s="24" t="n">
-        <v>0.0120549926388889</v>
+        <f aca="false">IF(G43="", "",G43-$G$34 )</f>
+        <v>0.0107291468055556</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>0.000931967789351852</v>
+        <f aca="false">IF(G43="", "", G43-G42)</f>
+        <v>0.000131085497685185</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="26" t="n">
-        <v>44629.8652329691</v>
+        <f aca="true">IF(C43="", "", IF(G43="", NOW(), G43))</f>
+        <v>44631.704843828</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -13437,22 +13623,27 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
+      <c r="A44" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B44" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D44" s="24" t="n">
-        <v>0.0125686856597222</v>
+        <f aca="false">IF(G44="", "",G44-$G$34 )</f>
+        <v>0.0114576408912037</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>0.000513693020833333</v>
+        <f aca="false">IF(G44="", "", G44-G43)</f>
+        <v>0.000728494097222222</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="26" t="n">
-        <v>44629.8657466621</v>
+        <f aca="true">IF(C44="", "", IF(G44="", NOW(), G44))</f>
+        <v>44631.7055723221</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -15055,7 +15246,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -15080,16 +15271,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="n">
-        <v>44631</v>
+        <v>44629</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -15101,7 +15293,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="10" t="n">
-        <v>0.0373089724189815</v>
+        <v>0.0366021624884259</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -15120,12 +15312,12 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="40.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="n">
-        <v>44631.6568057088</v>
+        <v>44629.816575814</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="6"/>
@@ -15137,7 +15329,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="10" t="n">
-        <v>0.0487666133101852</v>
+        <v>0.0491708481481481</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -15184,7 +15376,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -15234,21 +15426,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="19" t="n">
-        <v>0.0004075496875</v>
-      </c>
-      <c r="E5" s="19" t="n">
-        <v>0.0004075496875</v>
+        <v>0.00145075685185185</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>0.00145075685185185</v>
       </c>
       <c r="F5" s="20" t="n">
-        <v>0.0128870112847222</v>
+        <v>0.0125391065162037</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>44631.6572132585</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>44629.8180265708</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -15270,23 +15464,25 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16"/>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="30" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="19" t="n">
-        <v>0.00135758885416667</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>0.000950039155092593</v>
+        <v>0.00289827625</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>0.00144751939814815</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="12" t="n">
-        <v>44631.6581632977</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>44629.8194740902</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -15308,24 +15504,24 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
-      <c r="B7" s="29" t="n">
-        <v>3</v>
+      <c r="B7" s="30" t="n">
+        <v>9</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="19" t="n">
-        <v>0.00336683167824074</v>
-      </c>
-      <c r="E7" s="27" t="n">
-        <v>0.00200924283564815</v>
+        <v>0.00437014391203704</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0.00147186766203704</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="12" t="n">
-        <v>44631.6601725405</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>42</v>
+        <v>44629.8209459579</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
@@ -15348,23 +15544,25 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
-      <c r="B8" s="29" t="n">
-        <v>4</v>
+      <c r="B8" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="19" t="n">
-        <v>0.00347051935185185</v>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>0.000103687662037037</v>
+        <v>0.00582619305555556</v>
+      </c>
+      <c r="E8" s="28" t="n">
+        <v>0.00145604914351852</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="12" t="n">
-        <v>44631.6602762282</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>44629.822402007</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -15386,23 +15584,23 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
-      <c r="B9" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>43</v>
+      <c r="B9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="19" t="n">
-        <v>0.00428429872685185</v>
+        <v>0.00710101569444444</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>0.000813779386574074</v>
+        <v>0.00127482263888889</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="12" t="n">
-        <v>44631.6610900075</v>
-      </c>
-      <c r="H9" s="32" t="s">
+        <v>44629.8236768296</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="8"/>
@@ -15426,21 +15624,21 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
-      <c r="B10" s="29" t="n">
-        <v>9</v>
+      <c r="B10" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="19" t="n">
-        <v>0.00450566030092593</v>
+        <v>0.00834725892361111</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>0.0002213615625</v>
+        <v>0.00124624324074074</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="12" t="n">
-        <v>44631.6613113691</v>
+        <v>44629.8249230729</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -15464,25 +15662,23 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="30" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="19" t="n">
-        <v>0.00694044322916667</v>
-      </c>
-      <c r="E11" s="35" t="n">
-        <v>0.00243478292824074</v>
+        <v>0.00910151436342593</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>0.000754255439814815</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="12" t="n">
-        <v>44631.6637461521</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>32</v>
-      </c>
+        <v>44629.8256773283</v>
+      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -15507,21 +15703,21 @@
       <c r="B12" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>44</v>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="19" t="n">
-        <v>0.00893414541666667</v>
-      </c>
-      <c r="E12" s="27" t="n">
-        <v>0.00199370219907407</v>
+        <v>0.010933917337963</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>0.00183240298611111</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="12" t="n">
-        <v>44631.6657398542</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>27</v>
+        <v>44629.8275097313</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="6"/>
@@ -15544,25 +15740,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
-      <c r="B13" s="29" t="n">
+      <c r="B13" s="17" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="19" t="n">
-        <v>0.0115303823148148</v>
-      </c>
-      <c r="E13" s="35" t="n">
-        <v>0.00259623688657407</v>
+        <v>0.0111795225115741</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>0.000245605162037037</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="12" t="n">
-        <v>44631.6683360911</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>36</v>
-      </c>
+        <v>44629.8277553364</v>
+      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -15584,23 +15778,23 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="30" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D14" s="19" t="n">
-        <v>0.0128870112847222</v>
+        <v>0.0125391065046296</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>0.00135662898148148</v>
+        <v>0.00135958399305556</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="12" t="n">
-        <v>44631.6696927201</v>
-      </c>
-      <c r="H14" s="37"/>
+        <v>44629.8291149205</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -15628,23 +15822,21 @@
         <v>1</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>0.00241044456018518</v>
-      </c>
-      <c r="E15" s="35" t="n">
-        <v>0.00241044456018518</v>
+        <v>0.00108989690972222</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>0.00108989690972222</v>
       </c>
       <c r="F15" s="25" t="n">
-        <v>0.0122958053703704</v>
+        <v>0.0120761557523148</v>
       </c>
       <c r="G15" s="26" t="n">
-        <v>44631.6721031647</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>28</v>
-      </c>
+        <v>44629.8302048174</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -15670,19 +15862,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>0.00308352424768518</v>
+        <v>0.00245604436342593</v>
       </c>
       <c r="E16" s="24" t="n">
-        <v>0.0006730796875</v>
+        <v>0.0013661474537037</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26" t="n">
-        <v>44631.6727762444</v>
-      </c>
-      <c r="H16" s="37"/>
+        <v>44629.8315709648</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -15705,24 +15897,22 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>0.00429359055555556</v>
+        <v>0.00298485878472222</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>0.0012100662962963</v>
+        <v>0.000528814421296296</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="n">
-        <v>44631.6739863107</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>44629.8320997792</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -15744,24 +15934,24 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
-      <c r="B18" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>13</v>
+      <c r="B18" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>0.00600083135416667</v>
-      </c>
-      <c r="E18" s="27" t="n">
-        <v>0.00170724079861111</v>
+        <v>0.00413077675925926</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>0.00114591797453704</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="n">
-        <v>44631.6756935515</v>
+        <v>44629.8332456972</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="6"/>
@@ -15784,21 +15974,21 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="35" t="n">
         <v>4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>0.00714961390046296</v>
+        <v>0.00524145158564815</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>0.0011487825462963</v>
+        <v>0.00111067482638889</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="n">
-        <v>44631.676842334</v>
+        <v>44629.834356372</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -15822,21 +16012,21 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="35" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>0.00818461922453704</v>
+        <v>0.00565044053240741</v>
       </c>
       <c r="E20" s="24" t="n">
-        <v>0.00103500532407407</v>
+        <v>0.000408988935185185</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="n">
-        <v>44631.6778773393</v>
+        <v>44629.834765361</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -15860,21 +16050,21 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="35" t="n">
         <v>6</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="24" t="n">
-        <v>0.00920398177083333</v>
+        <v>0.00667611319444444</v>
       </c>
       <c r="E21" s="24" t="n">
-        <v>0.0010193625462963</v>
+        <v>0.00102567266203704</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="n">
-        <v>44631.6788967019</v>
+        <v>44629.8357910336</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -15905,16 +16095,18 @@
         <v>12</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>0.00980226103009259</v>
-      </c>
-      <c r="E22" s="24" t="n">
-        <v>0.000598279259259259</v>
+        <v>0.00840409997685185</v>
+      </c>
+      <c r="E22" s="28" t="n">
+        <v>0.00172798679398148</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="n">
-        <v>44631.6794949811</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>44629.8375190204</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -15936,24 +16128,24 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="35" t="n">
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>0.0117205126736111</v>
-      </c>
-      <c r="E23" s="27" t="n">
-        <v>0.00191825164351852</v>
+        <v>0.0107603427430556</v>
+      </c>
+      <c r="E23" s="36" t="n">
+        <v>0.00235624275462963</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="n">
-        <v>44631.6814132328</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>32</v>
+        <v>44629.8398752632</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
@@ -15975,24 +16167,22 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="A24" s="21"/>
       <c r="B24" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>48</v>
+      <c r="C24" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>0.0122958053819444</v>
+        <v>0.0120761557523148</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>0.000575292708333333</v>
+        <v>0.00131581302083333</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="n">
-        <v>44631.6819885255</v>
+        <v>44629.8411910762</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -16022,21 +16212,24 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="19" t="n">
-        <v>0.000382322430555556</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <v>0.000382322430555556</v>
+        <v>0.00258664684027778</v>
+      </c>
+      <c r="E25" s="36" t="n">
+        <v>0.00258664684027778</v>
       </c>
       <c r="F25" s="20" t="n">
-        <v>0.0121261557638889</v>
+        <f aca="false">SUM(E25:E34)</f>
+        <v>0.0119869002314815</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>44631.6823708479</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>44629.843777723</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -16058,21 +16251,21 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="30" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="19" t="n">
-        <v>0.000453053252314815</v>
+        <v>0.00289285265046296</v>
       </c>
       <c r="E26" s="19" t="n">
-        <v>7.07308333333333E-005</v>
+        <v>0.000306205810185185</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="12" t="n">
-        <v>44631.6824415787</v>
+        <v>44629.8440839289</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -16096,25 +16289,23 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
-      <c r="B27" s="29" t="n">
+      <c r="B27" s="17" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D27" s="19" t="n">
-        <v>0.00303393104166667</v>
-      </c>
-      <c r="E27" s="35" t="n">
-        <v>0.00258087778935185</v>
+        <v>0.00359257873842593</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>0.000699726087962963</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="12" t="n">
-        <v>44631.6850224565</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>27</v>
-      </c>
+        <v>44629.8447836549</v>
+      </c>
+      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -16140,17 +16331,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="19" t="n">
-        <v>0.00434856748842593</v>
+        <v>0.00372379380787037</v>
       </c>
       <c r="E28" s="19" t="n">
-        <v>0.00131463644675926</v>
+        <v>0.000131215069444444</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="12" t="n">
-        <v>44631.686337093</v>
+        <v>44629.84491487</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -16174,24 +16365,24 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
-      <c r="B29" s="29" t="n">
+      <c r="B29" s="17" t="n">
         <v>5</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="19" t="n">
-        <v>0.00596047912037037</v>
-      </c>
-      <c r="E29" s="27" t="n">
-        <v>0.00161191164351852</v>
+        <v>0.00527652012731481</v>
+      </c>
+      <c r="E29" s="28" t="n">
+        <v>0.00155272631944444</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="12" t="n">
-        <v>44631.6879490046</v>
+        <v>44629.8464675963</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="6"/>
@@ -16214,25 +16405,23 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
-      <c r="B30" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>49</v>
+      <c r="B30" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="19" t="n">
-        <v>0.00641492922453704</v>
+        <v>0.00600457388888889</v>
       </c>
       <c r="E30" s="19" t="n">
-        <v>0.000454450104166667</v>
+        <v>0.000728053761574074</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="12" t="n">
-        <v>44631.6884034547</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>27</v>
-      </c>
+        <v>44629.8471956501</v>
+      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -16254,23 +16443,25 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
-      <c r="B31" s="29" t="n">
-        <v>9</v>
+      <c r="B31" s="30" t="n">
+        <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="19" t="n">
-        <v>0.00694732056712963</v>
-      </c>
-      <c r="E31" s="19" t="n">
-        <v>0.000532391342592593</v>
+        <v>0.00806951083333333</v>
+      </c>
+      <c r="E31" s="28" t="n">
+        <v>0.00206493694444444</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="12" t="n">
-        <v>44631.6889358461</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>44629.849260587</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -16292,25 +16483,23 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
-      <c r="B32" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>40</v>
+      <c r="B32" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="19" t="n">
-        <v>0.00901610163194444</v>
-      </c>
-      <c r="E32" s="27" t="n">
-        <v>0.00206878106481481</v>
+        <v>0.00855534853009259</v>
+      </c>
+      <c r="E32" s="19" t="n">
+        <v>0.000485837696759259</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="12" t="n">
-        <v>44631.6910046271</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>36</v>
-      </c>
+        <v>44629.8497464247</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -16332,25 +16521,23 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
-      <c r="B33" s="29" t="n">
-        <v>8</v>
+      <c r="B33" s="17" t="n">
+        <v>6</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D33" s="19" t="n">
-        <v>0.0108477842824074</v>
-      </c>
-      <c r="E33" s="27" t="n">
-        <v>0.00183168265046296</v>
+        <v>0.00855534853009259</v>
+      </c>
+      <c r="E33" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="12" t="n">
-        <v>44631.6928363098</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>32</v>
-      </c>
+        <v>44629.8497464247</v>
+      </c>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -16377,20 +16564,22 @@
       <c r="B34" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>45</v>
+      <c r="C34" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="19" t="n">
-        <v>0.0121261557407407</v>
-      </c>
-      <c r="E34" s="19" t="n">
-        <v>0.00127837145833333</v>
+        <v>0.0119869002314815</v>
+      </c>
+      <c r="E34" s="36" t="n">
+        <v>0.00343155170138889</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="12" t="n">
-        <v>44631.6941146812</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>44629.8531779764</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -16417,22 +16606,24 @@
       <c r="B35" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>13</v>
+      <c r="C35" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="24" t="n">
-        <v>0.000495056770833333</v>
+        <v>0.00052111875</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>0.000495056770833333</v>
+        <v>0.00052111875</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>0.0114576408912037</v>
+        <v>0.0125686856597222</v>
       </c>
       <c r="G35" s="26" t="n">
-        <v>44631.694609738</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>44629.8536990952</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -16461,17 +16652,17 @@
         <v>12</v>
       </c>
       <c r="D36" s="24" t="n">
-        <v>0.00249159627314815</v>
-      </c>
-      <c r="E36" s="27" t="n">
-        <v>0.00199653950231481</v>
+        <v>0.00270641768518518</v>
+      </c>
+      <c r="E36" s="36" t="n">
+        <v>0.00218529893518518</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26" t="n">
-        <v>44631.6966062775</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>36</v>
+        <v>44629.8558843941</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="6"/>
@@ -16494,24 +16685,24 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
-      <c r="B37" s="34" t="n">
+      <c r="B37" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>44</v>
+      <c r="C37" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="24" t="n">
-        <v>0.00552419408564815</v>
-      </c>
-      <c r="E37" s="35" t="n">
-        <v>0.0030325978125</v>
+        <v>0.00511151302083333</v>
+      </c>
+      <c r="E37" s="36" t="n">
+        <v>0.00240509534722222</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26" t="n">
-        <v>44631.6996388753</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>32</v>
+        <v>44629.8582894895</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="6"/>
@@ -16534,21 +16725,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
-      <c r="B38" s="34" t="n">
+      <c r="B38" s="35" t="n">
         <v>4</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>0.00607231675925926</v>
+        <v>0.0056173937962963</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>0.000548122673611111</v>
+        <v>0.000505880763888889</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26" t="n">
-        <v>44631.700186998</v>
+        <v>44629.8587953702</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -16572,21 +16763,21 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
-      <c r="B39" s="34" t="n">
+      <c r="B39" s="35" t="n">
         <v>5</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>0.00671436385416667</v>
+        <v>0.00591988423611111</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>0.000642047106481482</v>
+        <v>0.000302490439814815</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="n">
-        <v>44631.7008290451</v>
+        <v>44629.8590978607</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -16614,17 +16805,17 @@
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>0.0079859291087963</v>
+        <v>0.00603691398148148</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>0.00127156525462963</v>
+        <v>0.00011702974537037</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26" t="n">
-        <v>44631.7021006103</v>
+        <v>44629.8592148904</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -16649,22 +16840,24 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="B41" s="22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>0.0092771252662037</v>
-      </c>
-      <c r="E41" s="24" t="n">
-        <v>0.00129119615740741</v>
+        <v>0.00976059547453704</v>
+      </c>
+      <c r="E41" s="36" t="n">
+        <v>0.00372368149305555</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="26" t="n">
-        <v>44631.7033918065</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>44629.8629385719</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -16686,21 +16879,21 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
-      <c r="B42" s="22" t="n">
-        <v>7</v>
+      <c r="B42" s="35" t="n">
+        <v>8</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>0.0105980612384259</v>
+        <v>0.011123024849537</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>0.00132093597222222</v>
+        <v>0.001362429375</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="26" t="n">
-        <v>44631.7047127425</v>
+        <v>44629.8643010013</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -16724,21 +16917,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
-      <c r="B43" s="34" t="n">
-        <v>8</v>
+      <c r="B43" s="35" t="n">
+        <v>9</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D43" s="24" t="n">
-        <v>0.0107291467824074</v>
+        <v>0.0120549926388889</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>0.000131085543981482</v>
+        <v>0.000931967789351852</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="26" t="n">
-        <v>44631.704843828</v>
+        <v>44629.8652329691</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -16761,24 +16954,22 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="A44" s="21"/>
       <c r="B44" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D44" s="24" t="n">
-        <v>0.0114576408796296</v>
+        <v>0.0125686856597222</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>0.000728494097222222</v>
+        <v>0.000513693020833333</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="26" t="n">
-        <v>44631.7055723221</v>
+        <v>44629.8657466621</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18381,6 +18572,3332 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>44631</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="10" t="n">
+        <v>0.0373089724189815</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="40.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>44631.6568057088</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0.0487666133101852</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>0.0004075496875</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>0.0004075496875</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>0.0128870112847222</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>44631.6572132585</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>0.00135758885416667</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>0.000950039155092593</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="12" t="n">
+        <v>44631.6581632977</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16"/>
+      <c r="B7" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>0.00336683167824074</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0.00200924283564815</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="12" t="n">
+        <v>44631.6601725405</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16"/>
+      <c r="B8" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>0.00347051935185185</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>0.000103687662037037</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="12" t="n">
+        <v>44631.6602762282</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>0.00428429872685185</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>0.000813779386574074</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="12" t="n">
+        <v>44631.6610900075</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16"/>
+      <c r="B10" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>0.00450566030092593</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>0.0002213615625</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="12" t="n">
+        <v>44631.6613113691</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>0.00694044322916667</v>
+      </c>
+      <c r="E11" s="36" t="n">
+        <v>0.00243478292824074</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="12" t="n">
+        <v>44631.6637461521</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="19" t="n">
+        <v>0.00893414541666667</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>0.00199370219907407</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="12" t="n">
+        <v>44631.6657398542</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0.0115303823148148</v>
+      </c>
+      <c r="E13" s="36" t="n">
+        <v>0.00259623688657407</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="12" t="n">
+        <v>44631.6683360911</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>0.0128870112847222</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>0.00135662898148148</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="12" t="n">
+        <v>44631.6696927201</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="24" t="n">
+        <v>0.00241044456018518</v>
+      </c>
+      <c r="E15" s="36" t="n">
+        <v>0.00241044456018518</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>0.0122958053703704</v>
+      </c>
+      <c r="G15" s="26" t="n">
+        <v>44631.6721031647</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="n">
+        <v>0.00308352424768518</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>0.0006730796875</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26" t="n">
+        <v>44631.6727762444</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="24" t="n">
+        <v>0.00429359055555556</v>
+      </c>
+      <c r="E17" s="24" t="n">
+        <v>0.0012100662962963</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26" t="n">
+        <v>44631.6739863107</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21"/>
+      <c r="B18" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="24" t="n">
+        <v>0.00600083135416667</v>
+      </c>
+      <c r="E18" s="28" t="n">
+        <v>0.00170724079861111</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="n">
+        <v>44631.6756935515</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21"/>
+      <c r="B19" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="24" t="n">
+        <v>0.00714961390046296</v>
+      </c>
+      <c r="E19" s="24" t="n">
+        <v>0.0011487825462963</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26" t="n">
+        <v>44631.676842334</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="B20" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="24" t="n">
+        <v>0.00818461922453704</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>0.00103500532407407</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="n">
+        <v>44631.6778773393</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="24" t="n">
+        <v>0.00920398177083333</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <v>0.0010193625462963</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26" t="n">
+        <v>44631.6788967019</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="24" t="n">
+        <v>0.00980226103009259</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>0.000598279259259259</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26" t="n">
+        <v>44631.6794949811</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21"/>
+      <c r="B23" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="24" t="n">
+        <v>0.0117205126736111</v>
+      </c>
+      <c r="E23" s="28" t="n">
+        <v>0.00191825164351852</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26" t="n">
+        <v>44631.6814132328</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="24" t="n">
+        <v>0.0122958053819444</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>0.000575292708333333</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26" t="n">
+        <v>44631.6819885255</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="19" t="n">
+        <v>0.000382322430555556</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>0.000382322430555556</v>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>0.0121261557638889</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>44631.6823708479</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19" t="n">
+        <v>0.000453053252314815</v>
+      </c>
+      <c r="E26" s="19" t="n">
+        <v>7.07308333333333E-005</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="12" t="n">
+        <v>44631.6824415787</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="19" t="n">
+        <v>0.00303393104166667</v>
+      </c>
+      <c r="E27" s="36" t="n">
+        <v>0.00258087778935185</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="12" t="n">
+        <v>44631.6850224565</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="19" t="n">
+        <v>0.00434856748842593</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>0.00131463644675926</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="12" t="n">
+        <v>44631.686337093</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
+      <c r="B29" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="19" t="n">
+        <v>0.00596047912037037</v>
+      </c>
+      <c r="E29" s="28" t="n">
+        <v>0.00161191164351852</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="12" t="n">
+        <v>44631.6879490046</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>0.00641492922453704</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>0.000454450104166667</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="12" t="n">
+        <v>44631.6884034547</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="19" t="n">
+        <v>0.00694732056712963</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <v>0.000532391342592593</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="12" t="n">
+        <v>44631.6889358461</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="19" t="n">
+        <v>0.00901610163194444</v>
+      </c>
+      <c r="E32" s="28" t="n">
+        <v>0.00206878106481481</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="12" t="n">
+        <v>44631.6910046271</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="19" t="n">
+        <v>0.0108477842824074</v>
+      </c>
+      <c r="E33" s="28" t="n">
+        <v>0.00183168265046296</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="12" t="n">
+        <v>44631.6928363098</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="19" t="n">
+        <v>0.0121261557407407</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <v>0.00127837145833333</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="12" t="n">
+        <v>44631.6941146812</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="24" t="n">
+        <v>0.000495056770833333</v>
+      </c>
+      <c r="E35" s="24" t="n">
+        <v>0.000495056770833333</v>
+      </c>
+      <c r="F35" s="25" t="n">
+        <v>0.0114576408912037</v>
+      </c>
+      <c r="G35" s="26" t="n">
+        <v>44631.694609738</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="24" t="n">
+        <v>0.00249159627314815</v>
+      </c>
+      <c r="E36" s="28" t="n">
+        <v>0.00199653950231481</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26" t="n">
+        <v>44631.6966062775</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21"/>
+      <c r="B37" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="24" t="n">
+        <v>0.00552419408564815</v>
+      </c>
+      <c r="E37" s="36" t="n">
+        <v>0.0030325978125</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26" t="n">
+        <v>44631.6996388753</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21"/>
+      <c r="B38" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="24" t="n">
+        <v>0.00607231675925926</v>
+      </c>
+      <c r="E38" s="24" t="n">
+        <v>0.000548122673611111</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26" t="n">
+        <v>44631.700186998</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21"/>
+      <c r="B39" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="24" t="n">
+        <v>0.00671436385416667</v>
+      </c>
+      <c r="E39" s="24" t="n">
+        <v>0.000642047106481482</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26" t="n">
+        <v>44631.7008290451</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="24" t="n">
+        <v>0.0079859291087963</v>
+      </c>
+      <c r="E40" s="24" t="n">
+        <v>0.00127156525462963</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26" t="n">
+        <v>44631.7021006103</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="24" t="n">
+        <v>0.0092771252662037</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>0.00129119615740741</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26" t="n">
+        <v>44631.7033918065</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="24" t="n">
+        <v>0.0105980612384259</v>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>0.00132093597222222</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26" t="n">
+        <v>44631.7047127425</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21"/>
+      <c r="B43" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="24" t="n">
+        <v>0.0107291467824074</v>
+      </c>
+      <c r="E43" s="24" t="n">
+        <v>0.000131085543981482</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26" t="n">
+        <v>44631.704843828</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="24" t="n">
+        <v>0.0114576408796296</v>
+      </c>
+      <c r="E44" s="24" t="n">
+        <v>0.000728494097222222</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26" t="n">
+        <v>44631.7055723221</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F35:F44"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
